--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -445,8 +445,8 @@
   <cols>
     <col width="26.5" customWidth="1" min="1" max="1"/>
     <col width="166.5" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="62" customWidth="1" min="4" max="4"/>
+    <col width="77" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -469,12 +469,12 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>missingValues</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>primaryKey</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>missingValues</t>
         </is>
       </c>
     </row>
@@ -498,17 +498,18 @@
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>jdc_person_id</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
 Left blank,
 Legitimately skipped,
+Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>jdc_person_id</t>
         </is>
       </c>
     </row>
@@ -532,17 +533,18 @@
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>jdc_person_id</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
 Left blank,
 Legitimately skipped,
+Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>jdc_person_id</t>
         </is>
       </c>
     </row>
@@ -566,18 +568,19 @@
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>jdc_person_id,
-visit_number</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
 Left blank,
 Legitimately skipped,
+Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>jdc_person_id,
+visit_number</t>
         </is>
       </c>
     </row>
@@ -601,18 +604,19 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>jdc_person_id,
-visit_number</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
 Left blank,
 Legitimately skipped,
+Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jdc_person_id,
+visit_number</t>
         </is>
       </c>
     </row>
@@ -627,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -648,7 +652,8 @@
     <col width="21" customWidth="1" min="10" max="10"/>
     <col width="41" customWidth="1" min="11" max="11"/>
     <col width="26" customWidth="1" min="12" max="12"/>
-    <col width="169" customWidth="1" min="13" max="13"/>
+    <col width="158" customWidth="1" min="13" max="13"/>
+    <col width="169" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -713,6 +718,11 @@
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>custom.jcoin:note</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>custom.jcoin:notes</t>
         </is>
@@ -754,6 +764,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -801,6 +812,7 @@
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -848,6 +860,7 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -895,6 +908,7 @@
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -919,14 +933,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A summary of the current status where client (participant) is in study</t>
+          <t xml:space="preserve">A summary of the current status where client (participant) is in
+study. 
+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>On study|Dropped out|Withdrawn by investigator|Completed study|Unknown</t>
+          <t>On study|Dropped out/lost to follow up|Withdrawn by investigator|Re-incarcerated|Deceased|Completed study|Unknown</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -939,7 +955,12 @@
           <t>current_study_status</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Re-incarcerated" = re-incarceration leading to dropout or withdrawal and "Withdrawn by investigator" = withdrawal by investigator for other reasons not listed</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -979,6 +1000,7 @@
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1044,7 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1064,7 +1087,8 @@
           <t>o2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]
  False if not 'Male' and not 'Transfgender' else True</t>
@@ -1112,7 +1136,8 @@
           <t>d4b</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
         </is>
@@ -1166,6 +1191,7 @@
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1215,6 +1241,7 @@
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1264,6 +1291,7 @@
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1313,6 +1341,7 @@
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1362,6 +1391,7 @@
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1411,6 +1441,7 @@
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1452,6 +1483,7 @@
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1493,6 +1525,7 @@
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1542,6 +1575,7 @@
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1590,6 +1624,7 @@
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1633,6 +1668,7 @@
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1672,6 +1708,7 @@
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1714,7 +1751,8 @@
           <t>d4d</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
         </is>
@@ -1762,6 +1800,7 @@
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1805,6 +1844,7 @@
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1848,6 +1888,7 @@
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1887,6 +1928,7 @@
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1926,6 +1968,7 @@
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1973,6 +2016,7 @@
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2012,6 +2056,7 @@
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2059,6 +2104,7 @@
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2098,6 +2144,7 @@
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2137,6 +2184,7 @@
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2176,6 +2224,7 @@
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2215,6 +2264,7 @@
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2254,6 +2304,7 @@
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2293,6 +2344,7 @@
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2332,6 +2384,7 @@
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2371,6 +2424,7 @@
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2401,9 +2455,9 @@
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="164" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="26" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="41" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
     <col width="170" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -2455,17 +2509,17 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>constraints.maxLength</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
           <t>constraints.pattern</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>custom.jcoin:original_name</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>constraints.maxLength</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
@@ -2506,17 +2560,19 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
-        </is>
+      <c r="J2" t="n">
+        <v>9</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>[A-Z][0-9][0-9][0-9]-[0-9][0-9][0-9][0-9]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>jdc_person_id</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2588,18 +2644,18 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[0-9][0-9][0-9][0-9]Q[0-9]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>quarter_enrolled</t>
         </is>
-      </c>
-      <c r="L4" t="n">
-        <v>6</v>
       </c>
       <c r="M4" t="inlineStr"/>
     </row>
@@ -2633,14 +2689,14 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
         <is>
           <t>staff_type</t>
         </is>
-      </c>
-      <c r="L5" t="n">
-        <v>80</v>
       </c>
       <c r="M5" t="inlineStr"/>
     </row>
@@ -2681,12 +2737,12 @@
         <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
         <is>
           <t>current_study_status</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2720,12 +2776,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
         <is>
           <t>d1a</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2763,12 +2819,12 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t>o1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2806,12 +2862,12 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
         <is>
           <t>o2</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.] 
@@ -2854,12 +2910,12 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>d4b</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
@@ -2905,12 +2961,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>d3_white</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2952,12 +3008,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>d3_black</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2999,12 +3055,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>d3_american_indian</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3046,12 +3102,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
         <is>
           <t>d3_hawaiian</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3093,12 +3149,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t>d3_asian</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3140,12 +3196,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
         <is>
           <t>d3_other</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3178,14 +3234,14 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="n">
+        <v>80</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
         <is>
           <t>d3_specify_tribe</t>
         </is>
-      </c>
-      <c r="L17" t="n">
-        <v>80</v>
       </c>
       <c r="M17" t="inlineStr"/>
     </row>
@@ -3219,14 +3275,14 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="n">
+        <v>80</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
         <is>
           <t>d3_specify_other</t>
         </is>
-      </c>
-      <c r="L18" t="n">
-        <v>80</v>
       </c>
       <c r="M18" t="inlineStr"/>
     </row>
@@ -3270,12 +3326,12 @@
         <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t>d3</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3317,12 +3373,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
         <is>
           <t>d2</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3360,12 +3416,12 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t>d4c</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3399,12 +3455,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t>d4c_specify_other</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3442,12 +3498,12 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
         <is>
           <t>d4d</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
@@ -3489,12 +3545,12 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
         <is>
           <t>d5</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3532,12 +3588,12 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>d5a</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3575,12 +3631,12 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t>d6</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -3614,12 +3670,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
         <is>
           <t>d6_grade</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -3653,12 +3709,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
         <is>
           <t>d6_specify_other</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3672,7 +3728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3685,14 +3741,16 @@
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="31" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="223.5" customWidth="1" min="5" max="5"/>
+    <col width="224" customWidth="1" min="5" max="5"/>
     <col width="44" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="22" customWidth="1" min="8" max="8"/>
-    <col width="26" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="184" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="41" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="184" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3733,25 +3791,35 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
+          <t>constraints.maxLength</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
           <t>constraints.pattern</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>custom.jcoin:original_name</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>constraints.minimum</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>examples</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>custom.jcoin:source</t>
         </is>
@@ -3787,19 +3855,23 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
-        </is>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>[A-Z][0-9][0-9][0-9]-[0-9][0-9][0-9][0-9]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>jdc_person_id</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3832,16 +3904,18 @@
         <v>1</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>visit_number</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3866,7 +3940,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>This is the date of the visit (ie time point of survey administration) after shifting by a random number 182 days before or 182 days after the actual visit date. The shifting is done on the individual level which retains the time interval between visits (and allows calculations of days between time points or other date fields which are shifted by the same number of days). To avoid issues with type conversion errors, the date is of type integer</t>
+          <t xml:space="preserve">This is the date of the visit (ie time point of survey administration)
+after shifting by a random number 182 days before or 182 days after the actual
+visit date. The shifting is done on the individual level which retains the time
+interval between visits (and allows calculations of days between time points
+or other date fields which are shifted by the same number of days). To avoid
+issues with type conversion errors, the date is of type integer
+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -3874,18 +3954,24 @@
         <v>1</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>shifted_visit_dt</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>shifted_visit_date</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>20220101|20240531</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>%Y%m%d</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3922,14 +4008,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>visit_type</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3964,14 +4052,16 @@
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>or1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-7</t>
@@ -4011,14 +4101,16 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>or2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-8</t>
@@ -4058,14 +4150,16 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>or3</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-9</t>
@@ -4105,14 +4199,16 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>or4</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-10</t>
@@ -4152,14 +4248,16 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>or5</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-11</t>
@@ -4199,14 +4297,16 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>or6</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-12</t>
@@ -4246,14 +4346,16 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>or7</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-13</t>
@@ -4293,14 +4395,16 @@
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>or8</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-14</t>
@@ -4340,14 +4444,16 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>or9</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-15</t>
@@ -4387,14 +4493,16 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>or10</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-16</t>
@@ -4434,14 +4542,16 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>or11</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-17</t>
@@ -4481,14 +4591,16 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
         <is>
           <t>or12</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-18</t>
@@ -4528,14 +4640,16 @@
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t>oc1</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
         <is>
           <t>TCU Survey of Organizational Functioning (Stress Measure)  - source document available at: http://ibr.tcu.edu/wp-content/uploads/2013/06/SOF-sg.pdf</t>
         </is>
@@ -4574,14 +4688,16 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
         <is>
           <t>oc2</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
         <is>
           <t>TCU Survey of Organizational Functioning (Stress Measure)  - source document available at: http://ibr.tcu.edu/wp-content/uploads/2013/06/SOF-sg.pdf</t>
         </is>
@@ -4620,14 +4736,16 @@
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
         <is>
           <t>oc3</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
         <is>
           <t>TCU Survey of Organizational Functioning (Stress Measure)  - source document available at: http://ibr.tcu.edu/wp-content/uploads/2013/06/SOF-sg.pdf</t>
         </is>
@@ -4666,14 +4784,16 @@
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>oc4</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
         <is>
           <t>TCU Survey of Organizational Functioning (Stress Measure)  - source document available at: http://ibr.tcu.edu/wp-content/uploads/2013/06/SOF-sg.pdf</t>
         </is>
@@ -4712,14 +4832,16 @@
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>sm1</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4754,14 +4876,16 @@
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
         <is>
           <t>sm2</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4796,14 +4920,16 @@
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
         <is>
           <t>sm3</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4838,14 +4964,16 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
         <is>
           <t>sm4</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4880,14 +5008,16 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>sm5</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4922,14 +5052,16 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
         <is>
           <t>sm6</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4964,14 +5096,16 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
         <is>
           <t>sm7</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5006,14 +5140,16 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
         <is>
           <t>sm8</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5048,14 +5184,16 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
         <is>
           <t>sm9</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5090,14 +5228,16 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
         <is>
           <t>sm10</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5132,14 +5272,16 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
         <is>
           <t>sm11</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5174,14 +5316,16 @@
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
         <is>
           <t>sm12</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5216,14 +5360,16 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
         <is>
           <t>sm13</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5258,14 +5404,16 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
         <is>
           <t>sm14</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5300,14 +5448,16 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
         <is>
           <t>sm15</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5342,14 +5492,16 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
         <is>
           <t>im1</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5384,14 +5536,16 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
         <is>
           <t>im2</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5426,14 +5580,16 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
         <is>
           <t>im3</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5468,14 +5624,16 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
         <is>
           <t>im4</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5510,14 +5668,16 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
         <is>
           <t>im5</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5552,14 +5712,16 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
         <is>
           <t>im6</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5594,14 +5756,16 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
         <is>
           <t>im7</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5636,14 +5800,16 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
         <is>
           <t>im8</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5678,14 +5844,16 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
         <is>
           <t>im9</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5720,14 +5888,16 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
         <is>
           <t>im10</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5762,14 +5932,16 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
         <is>
           <t>im11</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5804,14 +5976,16 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
         <is>
           <t>im12</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5824,7 +5998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O243"/>
+  <dimension ref="A1:P243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5842,12 +6016,13 @@
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="318.5" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="259" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="41" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="259" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5898,30 +6073,35 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>constraints.maxLength</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
           <t>constraints.pattern</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>custom.jcoin:original_name</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>constraints.minimum</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>custom.jcoin:notes</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>constraints.maximum</t>
         </is>
@@ -5959,20 +6139,23 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
-        </is>
+      <c r="J2" t="n">
+        <v>9</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>[A-Z][0-9][0-9][0-9]-[0-9][0-9][0-9][0-9]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>jdc_person_id</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6007,17 +6190,18 @@
         <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>visit_number</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6051,20 +6235,21 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>^Baseline$|^\d+ month$</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>visit_month</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6099,19 +6284,20 @@
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
         <is>
           <t>shifted_visit_dt</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>%Y%m%d</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6150,15 +6336,16 @@
         <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
         <is>
           <t>visit_type</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6195,19 +6382,20 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
         <is>
           <t>s1a</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6244,19 +6432,20 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t>s1b</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6293,19 +6482,20 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
         <is>
           <t>s1c</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6342,19 +6532,20 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>s1d</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6391,19 +6582,20 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>s1e</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6440,19 +6632,20 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>s2a</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6489,19 +6682,20 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>s2b</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6538,19 +6732,20 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
         <is>
           <t>s2c</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6583,19 +6778,20 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t>s3a</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
         <is>
           <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6628,19 +6824,20 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
         <is>
           <t>s3b</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6673,19 +6870,20 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
         <is>
           <t>s3c</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>TODO: expand fields to each of the possible selections</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6718,19 +6916,20 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
         <is>
           <t>s3d</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
         <is>
           <t>TODO: expand fields to each of the possible selections</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6763,15 +6962,16 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t>s3e</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6804,15 +7004,16 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
         <is>
           <t>s3f</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6845,15 +7046,16 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t>s3g</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6886,15 +7088,16 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t>s3h</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6927,15 +7130,16 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
         <is>
           <t>s4a</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6968,15 +7172,16 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
         <is>
           <t>s4b</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7009,15 +7214,16 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>s4c</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7050,15 +7256,16 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t>s4d</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7091,15 +7298,16 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
         <is>
           <t>s4e</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7132,15 +7340,16 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
         <is>
           <t>s4f</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7173,15 +7382,16 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t>s4g</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7214,15 +7424,16 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
         <is>
           <t>s4h</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7255,15 +7466,16 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
         <is>
           <t>s4j</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7296,15 +7508,16 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
         <is>
           <t>s4k</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7337,15 +7550,16 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
         <is>
           <t>s4m</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7378,15 +7592,16 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
         <is>
           <t>s4n</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7419,15 +7634,16 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
         <is>
           <t>s4p</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7460,15 +7676,16 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
         <is>
           <t>s4z</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7501,15 +7718,16 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t>s4z_describe</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7542,15 +7760,16 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
         <is>
           <t>s5</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7583,19 +7802,20 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
         <is>
           <t>j1</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
         <is>
           <t>[IF 0, GO TO J2]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7628,19 +7848,20 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
         <is>
           <t>j1a1</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7673,19 +7894,20 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
         <is>
           <t>j1a2</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7718,19 +7940,20 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
         <is>
           <t>j1a3</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7763,19 +7986,20 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
         <is>
           <t>j1a4</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7808,19 +8032,20 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
         <is>
           <t>j1a5</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7853,19 +8078,20 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
         <is>
           <t>j1a6</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7898,19 +8124,20 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
         <is>
           <t>j1a7</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7943,19 +8170,20 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
         <is>
           <t>j1a8</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7988,19 +8216,20 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
         <is>
           <t>j1a9</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8033,19 +8262,20 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t>j1a10</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8078,19 +8308,20 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
         <is>
           <t>j1a11</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8123,19 +8354,20 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
         <is>
           <t>j1a12</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8168,19 +8400,20 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t>j1a13</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8213,19 +8446,20 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
         <is>
           <t>j1a14</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8258,19 +8492,20 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
         <is>
           <t>j1a15</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8303,19 +8538,20 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
         <is>
           <t>j1a16</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8348,19 +8584,20 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
         <is>
           <t>j1a17</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8393,19 +8630,20 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
         <is>
           <t>j1a18</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8438,19 +8676,20 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
         <is>
           <t>j1a19</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8483,19 +8722,20 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
         <is>
           <t>j1a99</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8528,15 +8768,16 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
         <is>
           <t>j2</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8569,15 +8810,16 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
         <is>
           <t>j2a</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8610,15 +8852,16 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
         <is>
           <t>j2b</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8651,15 +8894,16 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
         <is>
           <t>j2c</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8692,15 +8936,16 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
         <is>
           <t>j2d</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8733,15 +8978,16 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
         <is>
           <t>j2e</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8774,15 +9020,16 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
         <is>
           <t>j2f</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8815,15 +9062,16 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
         <is>
           <t>j2g</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8856,15 +9104,16 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
         <is>
           <t>j2h</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8897,15 +9146,16 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
         <is>
           <t>j2i</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8938,15 +9188,16 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
         <is>
           <t>j2j</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8979,15 +9230,16 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
         <is>
           <t>j2k</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9020,15 +9272,16 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
         <is>
           <t>j2l</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9061,15 +9314,16 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
         <is>
           <t>j2m</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9102,15 +9356,16 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
         <is>
           <t>j2n</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9143,15 +9398,16 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
         <is>
           <t>j2o</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9184,15 +9440,16 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
         <is>
           <t>j2p</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9225,15 +9482,16 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
         <is>
           <t>j2q</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9266,15 +9524,16 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
         <is>
           <t>j2r</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9307,15 +9566,16 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
         <is>
           <t>j2s</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9348,15 +9608,16 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
         <is>
           <t>j2t</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9389,15 +9650,16 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
         <is>
           <t>j3a</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9430,15 +9692,16 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
         <is>
           <t>j3b</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9471,15 +9734,16 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
         <is>
           <t>j3c</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9512,15 +9776,16 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
         <is>
           <t>j3d</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9561,19 +9826,20 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
         <is>
           <t>j3e</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
         <is>
           <t>MBK: added Unknown to satisfy a small amount of respondents for one hub.</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9606,15 +9872,16 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
         <is>
           <t>j3f</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9647,15 +9914,16 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
         <is>
           <t>j4a</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9688,15 +9956,16 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
         <is>
           <t>j4b</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9729,15 +9998,16 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
         <is>
           <t>j4c</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9770,15 +10040,16 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
         <is>
           <t>j4d</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9811,15 +10082,16 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
         <is>
           <t>j4e</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9852,15 +10124,16 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
         <is>
           <t>j5a</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9893,15 +10166,16 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
         <is>
           <t>j5b</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9934,19 +10208,20 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
         <is>
           <t>j5c_years</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr">
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
         <is>
           <t>MBK: changed from integer to number to allow partial years/months</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9979,19 +10254,20 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
         <is>
           <t>j5c_months</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr">
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
         <is>
           <t>MBK: changed from integer to number to allow partial years/months</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10024,15 +10300,16 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
         <is>
           <t>j5d</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10065,15 +10342,16 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
         <is>
           <t>j5e</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10106,15 +10384,16 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
         <is>
           <t>u1</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10147,15 +10426,16 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
         <is>
           <t>u2</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10188,15 +10468,16 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
         <is>
           <t>u3</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10229,15 +10510,16 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
         <is>
           <t>u4</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10270,15 +10552,16 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
         <is>
           <t>u5a</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10311,15 +10594,16 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
         <is>
           <t>u5b</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10352,15 +10636,16 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
         <is>
           <t>u5c</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10393,15 +10678,16 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
         <is>
           <t>u6</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10442,15 +10728,16 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
         <is>
           <t>u6a</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10491,15 +10778,16 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
         <is>
           <t>u6b</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10540,15 +10828,16 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
         <is>
           <t>u6c</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10589,15 +10878,16 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
         <is>
           <t>u6d</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10630,15 +10920,16 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
         <is>
           <t>u6d_specify</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10671,15 +10962,16 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
         <is>
           <t>u7</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10712,15 +11004,16 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
         <is>
           <t>u7a</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10753,15 +11046,16 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
         <is>
           <t>u7b</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10794,15 +11088,16 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
         <is>
           <t>u7c</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10835,15 +11130,16 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
         <is>
           <t>u7d</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10876,15 +11172,16 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
         <is>
           <t>u7e</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10917,15 +11214,16 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
         <is>
           <t>u8</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10958,15 +11256,16 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
         <is>
           <t>u8a</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10999,15 +11298,16 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
         <is>
           <t>u8b</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11040,15 +11340,16 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
         <is>
           <t>u9</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11081,15 +11382,16 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
         <is>
           <t>u9a</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11122,15 +11424,16 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
         <is>
           <t>u9b</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11163,15 +11466,16 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
         <is>
           <t>u13</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11212,15 +11516,16 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
         <is>
           <t>u14</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11257,15 +11562,16 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
         <is>
           <t>u14a</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11302,15 +11608,16 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
         <is>
           <t>u14b</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11347,15 +11654,16 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
         <is>
           <t>u14c</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11392,15 +11700,16 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
         <is>
           <t>u14d</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11437,15 +11746,16 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
         <is>
           <t>u14e</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11486,15 +11796,16 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
         <is>
           <t>m1</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11535,15 +11846,16 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
         <is>
           <t>m2_meds</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11584,15 +11896,16 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
         <is>
           <t>m2_detox</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11633,15 +11946,16 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
         <is>
           <t>m2_outpt_counsel</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11682,15 +11996,16 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
         <is>
           <t>m2_outpt_intensive</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11731,15 +12046,16 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
         <is>
           <t>m2_residential</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11780,15 +12096,16 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
         <is>
           <t>m2_other</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11829,15 +12146,16 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
         <is>
           <t>m2_other_specify</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11878,15 +12196,16 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
         <is>
           <t>m2_none</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11927,15 +12246,16 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
         <is>
           <t>m2_dont_know</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11972,15 +12292,16 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12017,15 +12338,16 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
         <is>
           <t>m4</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12062,15 +12384,16 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
         <is>
           <t>m5</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12103,19 +12426,20 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
         <is>
           <t>d7a</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr">
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o3</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12148,19 +12472,20 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
         <is>
           <t>d7b</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr">
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o4</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12193,19 +12518,20 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
         <is>
           <t>d7c</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr">
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o5</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12242,19 +12568,20 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
         <is>
           <t>d7d</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr">
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o6</t>
         </is>
       </c>
-      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12295,19 +12622,20 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
         <is>
           <t>d7d1</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr">
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
         <is>
           <t>If No, then skip to d7e1. The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o7</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12340,19 +12668,20 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
         <is>
           <t>d7d2</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr">
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o8</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12385,19 +12714,20 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
         <is>
           <t>d7e1</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr">
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
         <is>
           <t>If No, [GO TO D7f1] The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o9</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12430,19 +12760,20 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
         <is>
           <t>d7e2</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr">
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o10</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12483,19 +12814,20 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
         <is>
           <t>d7f1</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr">
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o11</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12528,19 +12860,20 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
         <is>
           <t>d7f2</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr">
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o12</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12577,19 +12910,20 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
         <is>
           <t>d8</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr">
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o13</t>
         </is>
       </c>
-      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12622,19 +12956,20 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
         <is>
           <t>d8a</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr">
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o14</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12667,19 +13002,20 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
         <is>
           <t>d8b</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr">
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o15</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12712,19 +13048,20 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
         <is>
           <t>d8b1</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr">
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o16</t>
         </is>
       </c>
-      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12757,19 +13094,20 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
         <is>
           <t>d8c</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr">
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o17</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12810,19 +13148,20 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
         <is>
           <t>d8d_health_insurance</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr">
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o18</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12863,19 +13202,20 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
         <is>
           <t>d8d_paid_time_off</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr">
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o19</t>
         </is>
       </c>
-      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12916,19 +13256,20 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
         <is>
           <t>d8d_benefit_plan</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr">
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o20</t>
         </is>
       </c>
-      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12969,19 +13310,20 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
         <is>
           <t>d8d_retirement_plan</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr">
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o21</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13014,19 +13356,20 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
         <is>
           <t>d8e</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr">
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o22</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13067,19 +13410,20 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
         <is>
           <t>d9</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr">
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
         </is>
       </c>
-      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13120,19 +13464,20 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
         <is>
           <t>d9a_private</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr">
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
         </is>
       </c>
-      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13173,19 +13518,20 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
         <is>
           <t>d9a_medicare</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr">
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o24</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13226,19 +13572,20 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
         <is>
           <t>d9a_medigap</t>
         </is>
       </c>
-      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr">
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o25</t>
         </is>
       </c>
-      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13279,19 +13626,20 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
         <is>
           <t>d9a_medicaid</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr">
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o26</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13332,19 +13680,20 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
         <is>
           <t>d9a_schip</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr">
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o27</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13385,19 +13734,20 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
         <is>
           <t>d9a_military</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr">
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o28</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13438,19 +13788,20 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
         <is>
           <t>d9a_indian</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr">
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o29</t>
         </is>
       </c>
-      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13491,19 +13842,20 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
         <is>
           <t>d9a_state</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr">
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o30</t>
         </is>
       </c>
-      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13544,19 +13896,20 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
         <is>
           <t>d9a_other_government</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr">
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o31</t>
         </is>
       </c>
-      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13597,19 +13950,20 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
         <is>
           <t>d9a_single_service</t>
         </is>
       </c>
-      <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr">
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o32</t>
         </is>
       </c>
-      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13650,19 +14004,20 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
         <is>
           <t>d9a_dont_know</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr">
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o33</t>
         </is>
       </c>
-      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13695,19 +14050,20 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
         <is>
           <t>d10</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr">
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o34</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13740,19 +14096,20 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
         <is>
           <t>d11a</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr">
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o35</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13785,19 +14142,20 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
         <is>
           <t>d11b</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr">
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o36</t>
         </is>
       </c>
-      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13830,19 +14188,20 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
         <is>
           <t>d11c</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr">
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o37</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13875,19 +14234,20 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
         <is>
           <t>d11d</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr">
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o38</t>
         </is>
       </c>
-      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13920,19 +14280,20 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
         <is>
           <t>d11e</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr">
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o39</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13965,19 +14326,20 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
         <is>
           <t>d11f</t>
         </is>
       </c>
-      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr">
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o40</t>
         </is>
       </c>
-      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14010,19 +14372,20 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
         <is>
           <t>d11g</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr">
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o41</t>
         </is>
       </c>
-      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14055,19 +14418,20 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
         <is>
           <t>d11h</t>
         </is>
       </c>
-      <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr">
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o42</t>
         </is>
       </c>
-      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14100,19 +14464,20 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
         <is>
           <t>d11i</t>
         </is>
       </c>
-      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr">
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o43</t>
         </is>
       </c>
-      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14145,19 +14510,20 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
         <is>
           <t>d11j</t>
         </is>
       </c>
-      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr">
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o44</t>
         </is>
       </c>
-      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14198,19 +14564,20 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
         <is>
           <t>o3</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr">
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o45</t>
         </is>
       </c>
-      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14251,19 +14618,20 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
         <is>
           <t>o3a</t>
         </is>
       </c>
-      <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr">
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o46</t>
         </is>
       </c>
-      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -14304,19 +14672,20 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
         <is>
           <t>o3b</t>
         </is>
       </c>
-      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr">
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o47</t>
         </is>
       </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14353,15 +14722,16 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
         <is>
           <t>p1a</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14398,15 +14768,16 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
         <is>
           <t>p1b</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14443,15 +14814,16 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
         <is>
           <t>p1c</t>
         </is>
       </c>
-      <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14488,15 +14860,16 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
         <is>
           <t>p1d</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -14533,15 +14906,16 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
         <is>
           <t>p2a</t>
         </is>
       </c>
-      <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14578,15 +14952,16 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
         <is>
           <t>p2b</t>
         </is>
       </c>
-      <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14623,15 +14998,16 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
         <is>
           <t>p2c</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -14668,15 +15044,16 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
         <is>
           <t>p2d</t>
         </is>
       </c>
-      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14713,15 +15090,16 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
         <is>
           <t>p3a</t>
         </is>
       </c>
-      <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14758,15 +15136,16 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
         <is>
           <t>p3b</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14803,15 +15182,16 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
         <is>
           <t>p3c</t>
         </is>
       </c>
-      <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14848,15 +15228,16 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
         <is>
           <t>p3d</t>
         </is>
       </c>
-      <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14893,15 +15274,16 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
         <is>
           <t>p4a</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14938,15 +15320,16 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
         <is>
           <t>p4b</t>
         </is>
       </c>
-      <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14983,15 +15366,16 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
         <is>
           <t>p4c</t>
         </is>
       </c>
-      <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -15028,15 +15412,16 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
         <is>
           <t>p4d</t>
         </is>
       </c>
-      <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15073,15 +15458,16 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
         <is>
           <t>p5a</t>
         </is>
       </c>
-      <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15118,15 +15504,16 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
         <is>
           <t>p5b</t>
         </is>
       </c>
-      <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15163,15 +15550,16 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
         <is>
           <t>p5c</t>
         </is>
       </c>
-      <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15208,15 +15596,16 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
         <is>
           <t>p5d</t>
         </is>
       </c>
-      <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -15253,15 +15642,16 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
         <is>
           <t>p6a</t>
         </is>
       </c>
-      <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -15298,15 +15688,16 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
         <is>
           <t>p6b</t>
         </is>
       </c>
-      <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15343,15 +15734,16 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
         <is>
           <t>p6c</t>
         </is>
       </c>
-      <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15388,15 +15780,16 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
         <is>
           <t>p6d</t>
         </is>
       </c>
-      <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15433,15 +15826,16 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
         <is>
           <t>p7a</t>
         </is>
       </c>
-      <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15478,15 +15872,16 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
         <is>
           <t>p7b</t>
         </is>
       </c>
-      <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15523,15 +15918,16 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
         <is>
           <t>p8a</t>
         </is>
       </c>
-      <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15568,15 +15964,16 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
         <is>
           <t>p8b</t>
         </is>
       </c>
-      <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15613,15 +16010,16 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
         <is>
           <t>p8c</t>
         </is>
       </c>
-      <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15658,15 +16056,16 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
         <is>
           <t>p8d</t>
         </is>
       </c>
-      <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15699,15 +16098,16 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
         <is>
           <t>p9</t>
         </is>
       </c>
-      <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr"/>
-      <c r="O219" t="n">
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15746,19 +16146,20 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
         <is>
           <t>r1a</t>
         </is>
       </c>
-      <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr">
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15795,19 +16196,20 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
         <is>
           <t>r1b</t>
         </is>
       </c>
-      <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr">
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15844,19 +16246,20 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
         <is>
           <t>r1c</t>
         </is>
       </c>
-      <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr">
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15893,19 +16296,20 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
         <is>
           <t>r1d</t>
         </is>
       </c>
-      <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr">
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15942,19 +16346,20 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
         <is>
           <t>r1g</t>
         </is>
       </c>
-      <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr">
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15991,19 +16396,20 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
         <is>
           <t>r1h</t>
         </is>
       </c>
-      <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr">
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16040,19 +16446,20 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
         <is>
           <t>r1j</t>
         </is>
       </c>
-      <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr">
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16089,19 +16496,20 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
         <is>
           <t>r1k</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr">
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16138,19 +16546,20 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
         <is>
           <t>r1m</t>
         </is>
       </c>
-      <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr">
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16187,19 +16596,20 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
         <is>
           <t>r1n</t>
         </is>
       </c>
-      <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr">
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16236,19 +16646,20 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
         <is>
           <t>r2a</t>
         </is>
       </c>
-      <c r="L230" t="inlineStr"/>
       <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr">
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16285,19 +16696,20 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
         <is>
           <t>r2b</t>
         </is>
       </c>
-      <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr">
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16338,19 +16750,20 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
         <is>
           <t>r3a</t>
         </is>
       </c>
-      <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr">
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16391,19 +16804,20 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
         <is>
           <t>r3b</t>
         </is>
       </c>
-      <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr">
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16444,19 +16858,20 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
         <is>
           <t>r3c</t>
         </is>
       </c>
-      <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr">
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16497,19 +16912,20 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
         <is>
           <t>r3d</t>
         </is>
       </c>
-      <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr">
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16550,19 +16966,20 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
         <is>
           <t>r3e</t>
         </is>
       </c>
-      <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr">
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16603,19 +17020,20 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
         <is>
           <t>r3f</t>
         </is>
       </c>
-      <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr">
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16652,19 +17070,20 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
         <is>
           <t>r3a_first_dx</t>
         </is>
       </c>
-      <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr">
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16701,19 +17120,20 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
         <is>
           <t>r3b_first_dx</t>
         </is>
       </c>
-      <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr">
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16750,19 +17170,20 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
         <is>
           <t>r3c_first_dx</t>
         </is>
       </c>
-      <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr">
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16799,19 +17220,20 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
         <is>
           <t>r3d_first_dx</t>
         </is>
       </c>
-      <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr">
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16848,19 +17270,20 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
         <is>
           <t>r3e_first_dx</t>
         </is>
       </c>
-      <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr"/>
-      <c r="N242" t="inlineStr">
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16897,19 +17320,20 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
         <is>
           <t>r3f_first_dx</t>
         </is>
       </c>
-      <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr">
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,8 @@
     <col width="166.5" customWidth="1" min="2" max="2"/>
     <col width="77" customWidth="1" min="3" max="3"/>
     <col width="27" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="929" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,6 +476,11 @@
       <c r="F1" s="2" t="inlineStr">
         <is>
           <t>primaryKey</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>custom</t>
         </is>
       </c>
     </row>
@@ -512,6 +518,11 @@
           <t>jdc_person_id</t>
         </is>
       </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -547,6 +558,11 @@
           <t>jdc_person_id</t>
         </is>
       </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -583,6 +599,11 @@
 visit_number</t>
         </is>
       </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -617,6 +638,11 @@
         <is>
           <t>jdc_person_id,
 visit_number</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
@@ -3950,9 +3976,7 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -5998,7 +6022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P243"/>
+  <dimension ref="A1:Q243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6020,9 +6044,10 @@
     <col width="41" customWidth="1" min="11" max="11"/>
     <col width="26" customWidth="1" min="12" max="12"/>
     <col width="19" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="259" customWidth="1" min="15" max="15"/>
-    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="259" customWidth="1" min="16" max="16"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6093,15 +6118,20 @@
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
+          <t>examples</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
           <t>format</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>custom.jcoin:notes</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>constraints.maximum</t>
         </is>
@@ -6156,6 +6186,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6180,7 +6211,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A number that identifies the visit or timepoint of data collection (baseline=1 and each subsequent follow up is 2 or greater). The main purpose of this field is to provide a unique identifier within each participant. See `visit_month` for a label of the visit.</t>
+          <t xml:space="preserve">A number that identifies the visit or timepoint of data collection
+(baseline=1 and each subsequent follow up is 2 or greater). 
+The main purpose of this field is to provide the sequential number of visits. For example, if a study has 
+a Baseline and 6 and 12 month follow up, `visit_number` would be mapped to `visit_month` as 
+1=Baseline,2=6 month follow up, 3=12 month follow up.
+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -6202,6 +6238,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6250,6 +6287,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6259,7 +6297,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>shifted_visit_date</t>
+          <t>shifted_visit_dt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6274,30 +6312,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>This is the date of the visit (ie time point) after shifting by a random number 182 days before or 182 days after the actual visit date. The shifting is done on the individual level which retains the time interval between visits (and allows calculations of days between time points or other date fields which are shifted by the same number of days). To avoid issues with type conversion errors, the date is of type integer</t>
+          <t xml:space="preserve">This is the date of the visit (ie time point of survey administration)
+after shifting by a random number 182 days before or 182 days after the actual
+visit date. The shifting is done on the individual level which retains the time
+interval between visits (and allows calculations of days between time points
+or other date fields which are shifted by the same number of days). To avoid
+issues with type conversion errors, the date is of type integer
+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>shifted_visit_dt</t>
+          <t>shifted_visit_date</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
+          <t>20220101|20240531</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>%Y%m%d</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6346,6 +6393,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6390,12 +6438,13 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6440,12 +6489,13 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6490,12 +6540,13 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6540,12 +6591,13 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6590,12 +6642,13 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6640,12 +6693,13 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6690,12 +6744,13 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6740,12 +6795,13 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6786,12 +6842,13 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6832,12 +6889,13 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
         <is>
           <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6878,12 +6936,13 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
         <is>
           <t>TODO: expand fields to each of the possible selections</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6924,12 +6983,13 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
         <is>
           <t>TODO: expand fields to each of the possible selections</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6972,6 +7032,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7014,6 +7075,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7056,6 +7118,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7098,6 +7161,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7140,6 +7204,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7182,6 +7247,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7224,6 +7290,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7266,6 +7333,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7308,6 +7376,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7350,6 +7419,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7392,6 +7462,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7434,6 +7505,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7476,6 +7548,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7518,6 +7591,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7560,6 +7634,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7602,6 +7677,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7644,6 +7720,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7686,6 +7763,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7728,6 +7806,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7770,6 +7849,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7810,12 +7890,13 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>[IF 0, GO TO J2]</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7856,12 +7937,13 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7902,12 +7984,13 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7948,12 +8031,13 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7994,12 +8078,13 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8040,12 +8125,13 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8086,12 +8172,13 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8132,12 +8219,13 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8178,12 +8266,13 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8224,12 +8313,13 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8270,12 +8360,13 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8316,12 +8407,13 @@
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8362,12 +8454,13 @@
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8408,12 +8501,13 @@
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr">
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8454,12 +8548,13 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr">
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8500,12 +8595,13 @@
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr">
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8546,12 +8642,13 @@
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr">
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8592,12 +8689,13 @@
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8638,12 +8736,13 @@
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8684,12 +8783,13 @@
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8730,12 +8830,13 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8778,6 +8879,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8820,6 +8922,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8862,6 +8965,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8904,6 +9008,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8946,6 +9051,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8988,6 +9094,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9030,6 +9137,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9072,6 +9180,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9114,6 +9223,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9156,6 +9266,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9198,6 +9309,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9240,6 +9352,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9282,6 +9395,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9324,6 +9438,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9366,6 +9481,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9408,6 +9524,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9450,6 +9567,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9492,6 +9610,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9534,6 +9653,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9576,6 +9696,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9618,6 +9739,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9660,6 +9782,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9702,6 +9825,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9744,6 +9868,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9786,6 +9911,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9834,12 +9960,13 @@
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
         <is>
           <t>MBK: added Unknown to satisfy a small amount of respondents for one hub.</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9882,6 +10009,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9924,6 +10052,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9966,6 +10095,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10008,6 +10138,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10050,6 +10181,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10092,6 +10224,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10134,6 +10267,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10176,6 +10310,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10216,12 +10351,13 @@
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr">
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
         <is>
           <t>MBK: changed from integer to number to allow partial years/months</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10262,12 +10398,13 @@
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr">
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
         <is>
           <t>MBK: changed from integer to number to allow partial years/months</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10310,6 +10447,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10352,6 +10490,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10394,6 +10533,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10436,6 +10576,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10478,6 +10619,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10520,6 +10662,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10562,6 +10705,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10604,6 +10748,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10646,6 +10791,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10688,6 +10834,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10738,6 +10885,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10788,6 +10936,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10838,6 +10987,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10888,6 +11038,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10930,6 +11081,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10972,6 +11124,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11014,6 +11167,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11056,6 +11210,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11098,6 +11253,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11140,6 +11296,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11182,6 +11339,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11224,6 +11382,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11266,6 +11425,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11308,6 +11468,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11350,6 +11511,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11392,6 +11554,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11434,6 +11597,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11476,6 +11640,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11526,6 +11691,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11572,6 +11738,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11618,6 +11785,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11664,6 +11832,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11710,6 +11879,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11756,6 +11926,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11806,6 +11977,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11856,6 +12028,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11906,6 +12079,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11956,6 +12130,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12006,6 +12181,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12056,6 +12232,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12106,6 +12283,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12156,6 +12334,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -12206,6 +12385,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -12256,6 +12436,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12302,6 +12483,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12348,6 +12530,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12394,6 +12577,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12434,12 +12618,13 @@
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr">
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o3</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12480,12 +12665,13 @@
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr">
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o4</t>
         </is>
       </c>
-      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12526,12 +12712,13 @@
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr">
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o5</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12576,12 +12763,13 @@
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr">
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o6</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12630,12 +12818,13 @@
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr">
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
         <is>
           <t>If No, then skip to d7e1. The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o7</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12676,12 +12865,13 @@
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr">
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o8</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12722,12 +12912,13 @@
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr">
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
         <is>
           <t>If No, [GO TO D7f1] The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o9</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12768,12 +12959,13 @@
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr">
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o10</t>
         </is>
       </c>
-      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12822,12 +13014,13 @@
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr">
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o11</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12868,12 +13061,13 @@
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr">
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o12</t>
         </is>
       </c>
-      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12918,12 +13112,13 @@
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr">
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o13</t>
         </is>
       </c>
-      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12964,12 +13159,13 @@
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr">
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o14</t>
         </is>
       </c>
-      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -13010,12 +13206,13 @@
       </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr">
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o15</t>
         </is>
       </c>
-      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13056,12 +13253,13 @@
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr">
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o16</t>
         </is>
       </c>
-      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13102,12 +13300,13 @@
       </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr">
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o17</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13156,12 +13355,13 @@
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr">
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o18</t>
         </is>
       </c>
-      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13210,12 +13410,13 @@
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr">
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o19</t>
         </is>
       </c>
-      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13264,12 +13465,13 @@
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr">
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o20</t>
         </is>
       </c>
-      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13318,12 +13520,13 @@
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr">
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o21</t>
         </is>
       </c>
-      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13364,12 +13567,13 @@
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr">
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o22</t>
         </is>
       </c>
-      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13418,12 +13622,13 @@
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr">
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
         </is>
       </c>
-      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13472,12 +13677,13 @@
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr">
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
         </is>
       </c>
-      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13526,12 +13732,13 @@
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr">
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o24</t>
         </is>
       </c>
-      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13580,12 +13787,13 @@
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr">
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o25</t>
         </is>
       </c>
-      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13634,12 +13842,13 @@
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr">
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o26</t>
         </is>
       </c>
-      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13688,12 +13897,13 @@
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr">
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o27</t>
         </is>
       </c>
-      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13742,12 +13952,13 @@
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr">
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o28</t>
         </is>
       </c>
-      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13796,12 +14007,13 @@
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr">
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o29</t>
         </is>
       </c>
-      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13850,12 +14062,13 @@
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr">
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o30</t>
         </is>
       </c>
-      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13904,12 +14117,13 @@
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr">
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o31</t>
         </is>
       </c>
-      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13958,12 +14172,13 @@
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr">
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o32</t>
         </is>
       </c>
-      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14012,12 +14227,13 @@
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr">
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o33</t>
         </is>
       </c>
-      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14058,12 +14274,13 @@
       </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr">
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o34</t>
         </is>
       </c>
-      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14104,12 +14321,13 @@
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr">
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o35</t>
         </is>
       </c>
-      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14150,12 +14368,13 @@
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
-      <c r="O177" t="inlineStr">
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o36</t>
         </is>
       </c>
-      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14196,12 +14415,13 @@
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
-      <c r="O178" t="inlineStr">
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o37</t>
         </is>
       </c>
-      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14242,12 +14462,13 @@
       </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr">
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o38</t>
         </is>
       </c>
-      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14288,12 +14509,13 @@
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr">
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o39</t>
         </is>
       </c>
-      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14334,12 +14556,13 @@
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr">
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o40</t>
         </is>
       </c>
-      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14380,12 +14603,13 @@
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr">
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o41</t>
         </is>
       </c>
-      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14426,12 +14650,13 @@
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr">
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o42</t>
         </is>
       </c>
-      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14472,12 +14697,13 @@
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr">
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o43</t>
         </is>
       </c>
-      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14518,12 +14744,13 @@
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr">
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o44</t>
         </is>
       </c>
-      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14572,12 +14799,13 @@
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr">
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o45</t>
         </is>
       </c>
-      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14626,12 +14854,13 @@
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr">
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o46</t>
         </is>
       </c>
-      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -14680,12 +14909,13 @@
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr">
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o47</t>
         </is>
       </c>
-      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14732,6 +14962,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14778,6 +15009,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14824,6 +15056,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14870,6 +15103,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -14916,6 +15150,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14962,6 +15197,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15008,6 +15244,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15054,6 +15291,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15100,6 +15338,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15146,6 +15385,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15192,6 +15432,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15238,6 +15479,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -15284,6 +15526,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -15330,6 +15573,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -15376,6 +15620,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -15422,6 +15667,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15468,6 +15714,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15514,6 +15761,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15560,6 +15808,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15606,6 +15855,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -15652,6 +15902,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -15698,6 +15949,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15744,6 +15996,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15790,6 +16043,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15836,6 +16090,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15882,6 +16137,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15928,6 +16184,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15974,6 +16231,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -16020,6 +16278,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -16066,6 +16325,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16107,7 +16367,8 @@
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
-      <c r="P219" t="n">
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="n">
         <v>10</v>
       </c>
     </row>
@@ -16154,12 +16415,13 @@
       </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
-      <c r="O220" t="inlineStr">
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -16204,12 +16466,13 @@
       </c>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr"/>
-      <c r="O221" t="inlineStr">
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -16254,12 +16517,13 @@
       </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr">
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -16304,12 +16568,13 @@
       </c>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr">
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -16354,12 +16619,13 @@
       </c>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr"/>
-      <c r="O224" t="inlineStr">
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -16404,12 +16670,13 @@
       </c>
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr"/>
-      <c r="O225" t="inlineStr">
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16454,12 +16721,13 @@
       </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr">
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16504,12 +16772,13 @@
       </c>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
-      <c r="O227" t="inlineStr">
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16554,12 +16823,13 @@
       </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr">
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16604,12 +16874,13 @@
       </c>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr">
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16654,12 +16925,13 @@
       </c>
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr">
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16704,12 +16976,13 @@
       </c>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr">
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16758,12 +17031,13 @@
       </c>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr"/>
-      <c r="O232" t="inlineStr">
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16812,12 +17086,13 @@
       </c>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr"/>
-      <c r="O233" t="inlineStr">
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16866,12 +17141,13 @@
       </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr">
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16920,12 +17196,13 @@
       </c>
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr"/>
-      <c r="O235" t="inlineStr">
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16974,12 +17251,13 @@
       </c>
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr"/>
-      <c r="O236" t="inlineStr">
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -17028,12 +17306,13 @@
       </c>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr"/>
-      <c r="O237" t="inlineStr">
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -17078,12 +17357,13 @@
       </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr"/>
-      <c r="O238" t="inlineStr">
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -17128,12 +17408,13 @@
       </c>
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr"/>
-      <c r="O239" t="inlineStr">
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -17178,12 +17459,13 @@
       </c>
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr"/>
-      <c r="O240" t="inlineStr">
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -17228,12 +17510,13 @@
       </c>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
-      <c r="O241" t="inlineStr">
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -17278,12 +17561,13 @@
       </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr"/>
-      <c r="O242" t="inlineStr">
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -17328,12 +17612,13 @@
       </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr">
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -670,7 +670,7 @@
     <col width="26" customWidth="1" min="2" max="2"/>
     <col width="36.5" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="91" customWidth="1" min="5" max="5"/>
+    <col width="193.5" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="164" customWidth="1" min="8" max="8"/>
@@ -991,17 +991,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>Enrollment</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>days_on_study</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Days on study</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1011,7 +1011,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>About how old are you? (top coded at 90)</t>
+          <t xml:space="preserve">The number of days on study as calculated by the visit date minus the baseline visit date (ie the anchor date).
+The field is only necessary for participants who are no longer have a `current_study_status` of "On study".
+In other words, it is for participants who have either completed the study or attrited.
+NOTE: if `days_on_study` is filled out, `shifted_visit_date` is not required.
+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1020,11 +1024,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>d1a</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
     </row>
@@ -1036,37 +1036,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sex_at_birth</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sex at birth</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>What sex was originally listed on your birth certificate?</t>
+          <t>About how old are you? (top coded at 90)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Male|Female|Decline to answer|Something else</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>o1</t>
+          <t>d1a</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1080,12 +1076,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gender_id</t>
+          <t>sex_at_birth</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gender Identity</t>
+          <t>Sex at birth</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1095,14 +1091,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>What is your gender identity?</t>
+          <t>What sex was originally listed on your birth certificate?</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Male|Female|Transgender man/trans man/female-to-male (FTM)|Transgender woman/trans woman/male-to-female (MTF)|Genderqueer/gender nonconforming/neither exclusively male nor female|Additional gender category (or other)|Not reported</t>
+          <t>Male|Female|Decline to answer|Something else</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1110,16 +1106,11 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>o2</t>
+          <t>o1</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]
- False if not 'Male' and not 'Transfgender' else True</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1129,12 +1120,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gender_id_condensed</t>
+          <t>gender_id</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gender Identity (condensed)</t>
+          <t>Gender Identity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1151,7 +1142,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Male|Female|Transgender|Gender nonconforming|Something else|Not reported</t>
+          <t>Male|Female|Transgender man/trans man/female-to-male (FTM)|Transgender woman/trans woman/male-to-female (MTF)|Genderqueer/gender nonconforming/neither exclusively male nor female|Additional gender category (or other)|Not reported</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1159,13 +1150,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>d4b</t>
+          <t>o2</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
+          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]
+ False if not 'Male' and not 'Transfgender' else True</t>
         </is>
       </c>
     </row>
@@ -1177,47 +1169,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>race_white</t>
+          <t>gender_id_condensed</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Race: White</t>
+          <t>Gender Identity (condensed)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[White] What is your race? SELECT ALL THAT APPLY</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
+          <t>What is your gender identity?</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Male|Female|Transgender|Gender nonconforming|Something else|Not reported</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>d3_white</t>
+          <t>d4b</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1227,12 +1217,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>race_black</t>
+          <t>race_white</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Race: Black or African American</t>
+          <t>Race: White</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1242,7 +1232,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Black or African American] What is your race? SELECT ALL THAT APPLY</t>
+          <t>[White] What is your race? SELECT ALL THAT APPLY</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1263,7 +1253,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>d3_black</t>
+          <t>d3_white</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1277,12 +1267,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>race_AIAN</t>
+          <t>race_black</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Race: American Indian or Alaska Native</t>
+          <t>Race: Black or African American</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1292,7 +1282,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[American Indian or Alaska Native] What is your race? SELECT ALL THAT APPLY</t>
+          <t>[Black or African American] What is your race? SELECT ALL THAT APPLY</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1313,7 +1303,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>d3_american_indian</t>
+          <t>d3_black</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1327,12 +1317,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>race_hawaiian_OPI</t>
+          <t>race_AIAN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Race: Native Hawaiian or Other Pacific Islander</t>
+          <t>Race: American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1342,7 +1332,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Native Hawaiian or Other Pacific Islander] What is your race? SELECT ALL THAT APPLY</t>
+          <t>[American Indian or Alaska Native] What is your race? SELECT ALL THAT APPLY</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1363,7 +1353,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>d3_hawaiian</t>
+          <t>d3_american_indian</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1377,12 +1367,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>race_asian</t>
+          <t>race_hawaiian_OPI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Race: Asian</t>
+          <t>Race: Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1392,7 +1382,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Asian] What is your race? SELECT ALL THAT APPLY</t>
+          <t>[Native Hawaiian or Other Pacific Islander] What is your race? SELECT ALL THAT APPLY</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1413,7 +1403,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>d3_asian</t>
+          <t>d3_hawaiian</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1427,12 +1417,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>race_other</t>
+          <t>race_asian</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Race: Other</t>
+          <t>Race: Asian</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1442,7 +1432,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Other] What is your race? SELECT ALL THAT APPLY</t>
+          <t>[Asian] What is your race? SELECT ALL THAT APPLY</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1463,7 +1453,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>d3_other</t>
+          <t>d3_asian</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1477,35 +1467,43 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>race_AI_tribe</t>
+          <t>race_other</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Race: American indian principal tribe or community specified</t>
+          <t>Race: Other</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[American indian principal tribe or community specified] What is your race? SELECT ALL THAT APPLY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>[Other] What is your race? SELECT ALL THAT APPLY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>80</v>
-      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>d3_specify_tribe</t>
+          <t>d3_other</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
@@ -1519,12 +1517,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>race_other_specified</t>
+          <t>race_AI_tribe</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Race: Other specified</t>
+          <t>Race: American indian principal tribe or community specified</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1534,7 +1532,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Other specified] What is your race? SELECT ALL THAT APPLY</t>
+          <t>[American indian principal tribe or community specified] What is your race? SELECT ALL THAT APPLY</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1547,7 +1545,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>d3_specify_other</t>
+          <t>d3_specify_tribe</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
@@ -1561,43 +1559,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hispanic_latino</t>
+          <t>race_other_specified</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hispanic, Latino, or Spanish Origin</t>
+          <t>Race: Other specified</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Are you of Hispanic, Latino, or Spanish origin?</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>[Other specified] What is your race? SELECT ALL THAT APPLY</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>80</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>d2</t>
+          <t>d3_specify_other</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1611,20 +1601,70 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>hispanic_latino</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hispanic, Latino, or Spanish Origin</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Are you of Hispanic, Latino, or Spanish origin?</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>d2</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Demographics</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>race</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Race</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">Racial category derived from the individual racial category fields.
   - Exactly one racial category field selected = title of racial category
@@ -1632,65 +1672,21 @@
 </t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>White|Black or African American|American Indian or Alaska Native|Asian|Native Hawaiian or Other Pacific Islander|Some other race|Multiracial</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>d3</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Demographics</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>sex_orient_category</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sexual orientation</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Sexual orientation:  Do you think of yourself as...</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Straight or heterosexual|Lesbian or gay|Bisexual|Queer,pansexual, and/or questioning|Something else</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>White|Black or African American|American Indian or Alaska Native|Asian|Native Hawaiian or Other Pacific Islander|Some other race|Multiracial</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>d4c</t>
+          <t>d3</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
@@ -1704,12 +1700,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sex_orient_other</t>
+          <t>sex_orient_category</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sexual orientation:  Other specified</t>
+          <t>Sexual orientation</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1724,13 +1720,17 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Straight or heterosexual|Lesbian or gay|Bisexual|Queer,pansexual, and/or questioning|Something else</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>d4c_specify_other</t>
+          <t>d4c</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ever_pregnant</t>
+          <t>sex_orient_other</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ever pregnant</t>
+          <t>Sexual orientation:  Other specified</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1759,30 +1759,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Have you ever been pregnant?</t>
+          <t>Sexual orientation:  Do you think of yourself as...</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Never been pregnant|Currently pregnant|Previously pregnant, had a child|Previously pregnant, did not have a child|Not applicable|Don't know</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>d4d</t>
+          <t>d4c_specify_other</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1792,12 +1784,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>marital_status</t>
+          <t>ever_pregnant</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Marital status</t>
+          <t>Ever pregnant</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1807,14 +1799,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>What is your marital status?</t>
+          <t>Have you ever been pregnant?</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Married|Widowed|Divorced|Separated|Never married</t>
+          <t>Never been pregnant|Currently pregnant|Previously pregnant, had a child|Previously pregnant, did not have a child|Not applicable|Don't know</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1822,11 +1814,15 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>d5</t>
+          <t>d4d</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1836,12 +1832,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>living_as_married</t>
+          <t>marital_status</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Married with partner</t>
+          <t>Marital status</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1851,14 +1847,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Are you currently living as married with a romantic partner?</t>
+          <t>What is your marital status?</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Yes, I am living as married with partner|No, I am not living as married with partner</t>
+          <t>Married|Widowed|Divorced|Separated|Never married</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1866,7 +1862,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>d5a</t>
+          <t>d5</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1880,12 +1876,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>educ_category</t>
+          <t>living_as_married</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Married with partner</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1895,14 +1891,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>What is the highest grade or level of school you have completed or the highest degree you have received?</t>
+          <t>Are you currently living as married with a romantic partner?</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Did not complete high school|GED or equivalent|Regular high school diploma|Some college credit but less than 1 year of college credit|1 or more years of college credit but no degree|Associate's degree (e.g., AA or AS)|Bachelor's degree (e.g.,  BA or BS)|Graduate degree (e.g., MSW, MA, MS, JD, MD, DSW, EdD, PhD)|Other (specify)</t>
+          <t>Yes, I am living as married with partner|No, I am not living as married with partner</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1910,7 +1906,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>d6</t>
+          <t>d5a</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1924,33 +1920,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>educ_highest_grade</t>
+          <t>educ_category</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Education:  Highest grade level (if less than GED or h.s. diploma)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>What is the highest grade completed?</t>
+          <t>What is the highest grade or level of school you have completed or the highest degree you have received?</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Did not complete high school|GED or equivalent|Regular high school diploma|Some college credit but less than 1 year of college credit|1 or more years of college credit but no degree|Associate's degree (e.g., AA or AS)|Bachelor's degree (e.g.,  BA or BS)|Graduate degree (e.g., MSW, MA, MS, JD, MD, DSW, EdD, PhD)|Other (specify)</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>d6_grade</t>
+          <t>d6</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -1964,22 +1964,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>educ_other_specified</t>
+          <t>educ_highest_grade</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Education: Other specified</t>
+          <t>Education:  Highest grade level (if less than GED or h.s. diploma)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>What is the highest grade or level of school you have completed or the highest degree you have received?</t>
+          <t>What is the highest grade completed?</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1990,7 +1990,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>d6_specify_other</t>
+          <t>d6_grade</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1999,46 +1999,38 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MOUD</t>
+          <t>Demographics</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>intv_while_incarc</t>
+          <t>educ_other_specified</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Interviewed during incarceration</t>
+          <t>Education: Other specified</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Interview conducted with participant during incarceration?</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>What is the highest grade or level of school you have completed or the highest degree you have received?</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>u14f</t>
+          <t>d6_specify_other</t>
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
@@ -2052,33 +2044,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>days_incarcerated_interval</t>
+          <t>intv_while_incarc</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Days incarcerated (in past 30/xx days)</t>
+          <t>Interviewed during incarceration</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>During the past xx/30 days, how many days have you been incarcerated?</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>Interview conducted with participant during incarceration?</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>u14g</t>
+          <t>u14f</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -2092,41 +2092,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ever_rx_moud</t>
+          <t>days_incarcerated_interval</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Medication ever prescribed for opioid use disorder?</t>
+          <t>Days incarcerated (in past 30/xx days)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Have you ever been prescribed and taken medication to treat opioid use disorder?  (Illicit use should be excluded.)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>During the past xx/30 days, how many days have you been incarcerated?</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>u15</t>
+          <t>u14g</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -2140,33 +2132,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>months_daily_bup</t>
+          <t>ever_rx_moud</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Buprenorphine-naloxone or buprenorphine daily sublingual: Lifetime months</t>
+          <t>Medication ever prescribed for opioid use disorder?</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lifetime months (buprenorphine-naloxone or buprenorphine daily sublingual [e.g., Suboxone film or tablet, generic films or tablets, or Subutex tablets])</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>Have you ever been prescribed and taken medication to treat opioid use disorder?  (Illicit use should be excluded.)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>u15a1</t>
+          <t>u15</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>months_sublocade</t>
+          <t>months_daily_bup</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Buprenorphine injection (Sublocade):  Lifetime months</t>
+          <t>Buprenorphine-naloxone or buprenorphine daily sublingual: Lifetime months</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lifetime months (buprenorphine injection [Sublocade])</t>
+          <t>Lifetime months (buprenorphine-naloxone or buprenorphine daily sublingual [e.g., Suboxone film or tablet, generic films or tablets, or Subutex tablets])</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2206,7 +2206,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>u15b1</t>
+          <t>u15a1</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -2220,12 +2220,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>months_weekly_brixadi</t>
+          <t>months_sublocade</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Buprenorphine  weekly injection (Brixadi):  Lifetime months</t>
+          <t>Buprenorphine injection (Sublocade):  Lifetime months</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lifetime months (buprenorphine weekly injection [Brixadi])</t>
+          <t>Lifetime months (buprenorphine injection [Sublocade])</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2246,7 +2246,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>u15c1</t>
+          <t>u15b1</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>months_monthly_brixadi</t>
+          <t>months_weekly_brixadi</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Buprenorphine  monthly injection (Brixadi):  Lifetime months</t>
+          <t>Buprenorphine  weekly injection (Brixadi):  Lifetime months</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lifetime months (buprenorphine monthly injection [Brixadi])</t>
+          <t>Lifetime months (buprenorphine weekly injection [Brixadi])</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2286,7 +2286,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>u15d1</t>
+          <t>u15c1</t>
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
@@ -2300,12 +2300,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>months_probuphine_implant</t>
+          <t>months_monthly_brixadi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Buprenorphine 6-month implant (Probuphine):  Lifetime months</t>
+          <t>Buprenorphine  monthly injection (Brixadi):  Lifetime months</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lifetime months (buprenorphine 6-month implant [Probuphine])</t>
+          <t>Lifetime months (buprenorphine monthly injection [Brixadi])</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2326,7 +2326,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>u15e1</t>
+          <t>u15d1</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>months_daily_ntx</t>
+          <t>months_probuphine_implant</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Naltrexone daily (oral):  Lifetime months</t>
+          <t>Buprenorphine 6-month implant (Probuphine):  Lifetime months</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lifetime months (Naltrexone daily (oral))</t>
+          <t>Lifetime months (buprenorphine 6-month implant [Probuphine])</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2366,7 +2366,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>u15f1</t>
+          <t>u15e1</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2380,12 +2380,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>months_monthly_vivitrol</t>
+          <t>months_daily_ntx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Naltrexone monthly injection (Vivitrol):  Lifetime months</t>
+          <t>Naltrexone daily (oral):  Lifetime months</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Lifetime months (Naltrexone monthly injection [Vivitrol])</t>
+          <t>Lifetime months (Naltrexone daily (oral))</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>u15g1</t>
+          <t>u15f1</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>months_methadone</t>
+          <t>months_monthly_vivitrol</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methadone daily:  Lifetime months</t>
+          <t>Naltrexone monthly injection (Vivitrol):  Lifetime months</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lifetime months (methadone daily)</t>
+          <t>Lifetime months (Naltrexone monthly injection [Vivitrol])</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2446,11 +2446,51 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>u15h1</t>
+          <t>u15g1</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MOUD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>months_methadone</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Methadone daily:  Lifetime months</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Lifetime months (methadone daily)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>u15h1</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3767,7 +3807,7 @@
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="31" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="224" customWidth="1" min="5" max="5"/>
+    <col width="263.5" customWidth="1" min="5" max="5"/>
     <col width="44" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
@@ -3972,6 +4012,7 @@
 interval between visits (and allows calculations of days between time points
 or other date fields which are shifted by the same number of days). To avoid
 issues with type conversion errors, the date is of type integer
+NOTE: if `days_on_study` is filled out, `shifted_visit_date` is not required.
 </t>
         </is>
       </c>
@@ -3984,7 +4025,9 @@
           <t>shifted_visit_date</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>20220101|20240531</t>
@@ -6318,6 +6361,7 @@
 interval between visits (and allows calculations of days between time points
 or other date fields which are shifted by the same number of days). To avoid
 issues with type conversion errors, the date is of type integer
+NOTE: if `days_on_study` is filled out, `shifted_visit_date` is not required.
 </t>
         </is>
       </c>
@@ -6332,7 +6376,9 @@
           <t>shifted_visit_date</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>20220101|20240531</t>

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,8 +447,9 @@
     <col width="166.5" customWidth="1" min="2" max="2"/>
     <col width="77" customWidth="1" min="3" max="3"/>
     <col width="27" customWidth="1" min="4" max="4"/>
-    <col width="929" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="964" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,6 +480,11 @@
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>custom</t>
         </is>
@@ -520,7 +526,12 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:participantType': 'Client', 'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
@@ -560,7 +571,12 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:participantType': 'Staff', 'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
@@ -601,7 +617,12 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:participantType': 'Staff', 'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
@@ -642,7 +663,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{'jcoin:participantType': 'Client', 'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,8 @@
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="538.5" customWidth="1" min="2" max="2"/>
     <col width="77" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,6 +468,11 @@
       <c r="E1" s="2" t="inlineStr">
         <is>
           <t>missingValues</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>version</t>
         </is>
       </c>
     </row>
@@ -507,6 +513,11 @@
 Missing</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2.2.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -543,6 +554,11 @@
 Legitimately skipped,
 Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.2.0</t>
         </is>
       </c>
     </row>

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -442,8 +442,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="538.5" customWidth="1" min="2" max="2"/>
-    <col width="77" customWidth="1" min="3" max="3"/>
+    <col width="543" customWidth="1" min="2" max="2"/>
+    <col width="86" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
@@ -494,7 +494,7 @@
   - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.
   - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.
   - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.
-  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.
+  - Missing in error: This code signifies that the data for the question is missing without any clear reason or explanation.
 </t>
         </is>
       </c>
@@ -510,7 +510,7 @@
 Left blank,
 Legitimately skipped,
 Not collected,
-Missing</t>
+Missing in error</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -537,7 +537,7 @@
   - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.
   - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.
   - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.
-  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.
+  - Missing in error: This code signifies that the data for the question is missing without any clear reason or explanation.
 </t>
         </is>
       </c>
@@ -553,7 +553,7 @@
 Left blank,
 Legitimately skipped,
 Not collected,
-Missing</t>
+Missing in error</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="543" customWidth="1" min="2" max="2"/>
+    <col width="97.5" customWidth="1" min="2" max="2"/>
     <col width="86" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="892" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,6 +476,11 @@
           <t>version</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>jcoin:missingValuesDescription</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -487,8 +493,33 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">This schema/data dictionary contains all fields collected baseline and follow ups.If marked, `jcoin:baseline_only` = True, the field is only collected at baseline (and not follow up interviews)
-**Below are extended descriptions of each `missingValue` (ie reserve code):**
+          <t>This schema/data dictionary contains all fields collected baseline and follow ups.If marked, `jcoin:baseline_only` = `True`, the field is only collected at baseline (and not follow up interviews)</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Client data dictionary</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Don't know,
+Refused,
+Left blank,
+Legitimately skipped,
+Not collected,
+Missing in error</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2.3.0</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+**Below are extended descriptions of each `missingValues` (ie reserve code):**
   - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.
   - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.
   - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.
@@ -498,12 +529,27 @@
 </t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Client data dictionary</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>table-schema-staff</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>This schema/data dictionary contains all fields collected baseline and follow ups.If marked, `jcoin:baseline_only` = `True`, the field is only collected at baseline (and not follow up interviews)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Staff data dictionary</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
@@ -513,25 +559,15 @@
 Missing in error</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>2.2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>table-schema-staff</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This schema/data dictionary contains all fields collected baseline and follow ups.If marked, `jcoin:baseline_only` = True, the field is only collected at baseline (and not follow up interviews)
-**Below are extended descriptions of each `missingValue` (ie reserve code):**
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.3.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+**Below are extended descriptions of each `missingValues` (ie reserve code):**
   - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.
   - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.
   - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.
@@ -539,26 +575,6 @@
   - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.
   - Missing in error: This code signifies that the data for the question is missing without any clear reason or explanation.
 </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Staff data dictionary</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Don't know,
-Refused,
-Left blank,
-Legitimately skipped,
-Not collected,
-Missing in error</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.2.0</t>
         </is>
       </c>
     </row>
@@ -1056,10 +1072,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">The number of days on study as calculated by the visit date minus the baseline visit date (ie the anchor date).
-The field is only necessary for participants who are no longer have a `current_study_status` of "On study".
-In other words, it is for participants who have either completed the study or attrited.
-NOTE: if `days_on_study` is filled out, `shifted_visit_date` is not required.
+          <t xml:space="preserve">The number of days (anchor date is baseline visit date) on study as calculated by:
+** In baseline file: **
+1. the current date minus the baseline visit date, if on study
+2. the date of attrition minus the baseline visit date, if attrited
+3. the date of study completion minus the baseline visit date, if complete study
+**In timepoints file: **
+1. visit_date minus the baseline visit date
+NOTE: again, the baseline date is the anchor date for BOTH variables.
 </t>
         </is>
       </c>
@@ -1069,7 +1089,9 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -1074,7 +1074,7 @@
         <is>
           <t xml:space="preserve">The number of days (anchor date is baseline visit date) on study as calculated by:
 ** In baseline file: **
-1. the current date minus the baseline visit date, if on study
+1. the date data was last updated minus the baseline visit date, if on study
 2. the date of attrition minus the baseline visit date, if attrited
 3. the date of study completion minus the baseline visit date, if complete study
 **In timepoints file: **
@@ -1086,9 +1086,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>1</v>
       </c>

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W281"/>
+  <dimension ref="A1:S281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -606,21 +606,17 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="318.5" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="10" max="10"/>
     <col width="21" customWidth="1" min="11" max="11"/>
     <col width="41" customWidth="1" min="12" max="12"/>
     <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="24" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="158" customWidth="1" min="16" max="16"/>
-    <col width="158" customWidth="1" min="17" max="17"/>
-    <col width="169" customWidth="1" min="18" max="18"/>
-    <col width="259" customWidth="1" min="19" max="19"/>
-    <col width="19" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="17" customWidth="1" min="22" max="22"/>
-    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="158" customWidth="1" min="14" max="14"/>
+    <col width="259" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="17" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -666,12 +662,12 @@
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>jcoin:baseline_only</t>
+          <t>constraints.required</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>constraints.required</t>
+          <t>custom.jcoin:baseline_only</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
@@ -691,50 +687,30 @@
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>jcoin:original_name</t>
+          <t>custom.jcoin:note</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>custom.jcoin:baseline_only</t>
+          <t>custom.jcoin:notes</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>jcoin:note</t>
+          <t>constraints.minimum</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>custom.jcoin:note</t>
+          <t>format</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>jcoin:notes</t>
+          <t>examples</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>custom.jcoin:notes</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>constraints.minimum</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>constraints.maximum</t>
         </is>
@@ -784,10 +760,6 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -818,10 +790,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="b">
+      <c r="I3" t="b">
         <v>1</v>
       </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>9</v>
       </c>
@@ -841,10 +813,6 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -894,22 +862,12 @@
           <t>quarter_enrolled</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>quarter_enrolled</t>
-        </is>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -959,22 +917,12 @@
           <t>state_of_site_enrollment</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>state_of_site_enrollment</t>
-        </is>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1026,28 +974,14 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>current_study_status</t>
-        </is>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
           <t>Re-incarcerated" = re-incarceration leading to dropout or withdrawal and "Withdrawn by investigator" = withdrawal by investigator for other reasons not listed</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Re-incarcerated" = re-incarceration leading to dropout or withdrawal and "Withdrawn by investigator" = withdrawal by investigator for other reasons not listed</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1086,10 +1020,10 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="b">
+      <c r="I7" t="b">
         <v>1</v>
       </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1099,10 +1033,6 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1133,10 +1063,10 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
@@ -1144,22 +1074,12 @@
           <t>d1a</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>d1a</t>
-        </is>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1194,10 +1114,10 @@
           <t>Male|Female|Decline to answer|Something else</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
@@ -1205,22 +1125,12 @@
           <t>o1</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>o1</t>
-        </is>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1255,10 +1165,10 @@
           <t>Male|Female|Transgender man/trans man/female-to-male (FTM)|Transgender woman/trans woman/male-to-female (MTF)|Genderqueer/gender nonconforming/neither exclusively male nor female|Additional gender category (or other)|Not reported</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
@@ -1266,32 +1176,17 @@
           <t>o2</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>o2</t>
-        </is>
-      </c>
-      <c r="O10" t="b">
-        <v>1</v>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]
+ False if not 'Male' and not 'Transfgender' else True</t>
+        </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]
- False if not 'Male' and not 'Transfgender' else True</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]
- False if not 'Male' and not 'Transfgender' else True</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1326,10 +1221,10 @@
           <t>Male|Female|Transgender|Gender nonconforming|Something else|Not reported</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
         <v>1</v>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
@@ -1337,30 +1232,16 @@
           <t>d4b</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>d4b</t>
-        </is>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
+        </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1412,22 +1293,12 @@
           <t>d3_white</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>d3_white</t>
-        </is>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1479,22 +1350,12 @@
           <t>d3_black</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>d3_black</t>
-        </is>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1546,22 +1407,12 @@
           <t>d3_american_indian</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>d3_american_indian</t>
-        </is>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1613,22 +1464,12 @@
           <t>d3_hawaiian</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>d3_hawaiian</t>
-        </is>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1680,22 +1521,12 @@
           <t>d3_asian</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>d3_asian</t>
-        </is>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1747,22 +1578,12 @@
           <t>d3_other</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>d3_other</t>
-        </is>
-      </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1793,10 +1614,10 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
         <v>1</v>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>80</v>
       </c>
@@ -1806,22 +1627,12 @@
           <t>d3_specify_tribe</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>d3_specify_tribe</t>
-        </is>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1852,10 +1663,10 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="b">
         <v>1</v>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>80</v>
       </c>
@@ -1865,22 +1676,12 @@
           <t>d3_specify_other</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>d3_specify_other</t>
-        </is>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1932,22 +1733,12 @@
           <t>d2</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>d2</t>
-        </is>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1998,22 +1789,12 @@
           <t>d3</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>d3</t>
-        </is>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2048,10 +1829,10 @@
           <t>Straight or heterosexual|Lesbian or gay|Bisexual|Queer,pansexual, and/or questioning|Something else</t>
         </is>
       </c>
-      <c r="I22" t="b">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
         <v>1</v>
       </c>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
@@ -2059,22 +1840,12 @@
           <t>d4c</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>d4c</t>
-        </is>
-      </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2105,10 +1876,10 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
         <v>1</v>
       </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
@@ -2116,22 +1887,12 @@
           <t>d4c_specify_other</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>d4c_specify_other</t>
-        </is>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2166,10 +1927,10 @@
           <t>Never been pregnant|Currently pregnant|Previously pregnant, had a child|Previously pregnant, did not have a child|Not applicable|Don't know</t>
         </is>
       </c>
-      <c r="I24" t="b">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
         <v>1</v>
       </c>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
@@ -2177,30 +1938,16 @@
           <t>d4d</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>d4d</t>
-        </is>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
+        </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2235,10 +1982,10 @@
           <t>Married|Widowed|Divorced|Separated|Never married</t>
         </is>
       </c>
-      <c r="I25" t="b">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="b">
         <v>1</v>
       </c>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
@@ -2246,22 +1993,12 @@
           <t>d5</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>d5</t>
-        </is>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2296,10 +2033,10 @@
           <t>Yes, I am living as married with partner|No, I am not living as married with partner</t>
         </is>
       </c>
-      <c r="I26" t="b">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="b">
         <v>1</v>
       </c>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
@@ -2307,22 +2044,12 @@
           <t>d5a</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>d5a</t>
-        </is>
-      </c>
-      <c r="O26" t="b">
-        <v>1</v>
-      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2357,10 +2084,10 @@
           <t>Did not complete high school|GED or equivalent|Regular high school diploma|Some college credit but less than 1 year of college credit|1 or more years of college credit but no degree|Associate's degree (e.g., AA or AS)|Bachelor's degree (e.g.,  BA or BS)|Graduate degree (e.g., MSW, MA, MS, JD, MD, DSW, EdD, PhD)|Other (specify)</t>
         </is>
       </c>
-      <c r="I27" t="b">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
         <v>1</v>
       </c>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
@@ -2368,22 +2095,12 @@
           <t>d6</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>d6</t>
-        </is>
-      </c>
-      <c r="O27" t="b">
-        <v>1</v>
-      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2414,10 +2131,10 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="b">
         <v>1</v>
       </c>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
@@ -2425,22 +2142,12 @@
           <t>d6_grade</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>d6_grade</t>
-        </is>
-      </c>
-      <c r="O28" t="b">
-        <v>1</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,10 +2178,10 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
         <v>1</v>
       </c>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
@@ -2482,22 +2189,12 @@
           <t>d6_specify_other</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>d6_specify_other</t>
-        </is>
-      </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2536,10 +2233,10 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
         <v>1</v>
       </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
@@ -2547,22 +2244,12 @@
           <t>u14f</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>u14f</t>
-        </is>
-      </c>
-      <c r="O30" t="b">
-        <v>1</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2593,10 +2280,10 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="b">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
         <v>1</v>
       </c>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -2604,22 +2291,12 @@
           <t>u14g</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>u14g</t>
-        </is>
-      </c>
-      <c r="O31" t="b">
-        <v>1</v>
-      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2658,10 +2335,10 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="b">
         <v>1</v>
       </c>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2669,22 +2346,12 @@
           <t>u15</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>u15</t>
-        </is>
-      </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2715,10 +2382,10 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="b">
         <v>1</v>
       </c>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
@@ -2726,22 +2393,12 @@
           <t>u15a1</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>u15a1</t>
-        </is>
-      </c>
-      <c r="O33" t="b">
-        <v>1</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2772,10 +2429,10 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
         <v>1</v>
       </c>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2783,22 +2440,12 @@
           <t>u15b1</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>u15b1</t>
-        </is>
-      </c>
-      <c r="O34" t="b">
-        <v>1</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2829,10 +2476,10 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
         <v>1</v>
       </c>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
@@ -2840,22 +2487,12 @@
           <t>u15c1</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>u15c1</t>
-        </is>
-      </c>
-      <c r="O35" t="b">
-        <v>1</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2886,10 +2523,10 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="b">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="b">
         <v>1</v>
       </c>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2897,22 +2534,12 @@
           <t>u15d1</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>u15d1</t>
-        </is>
-      </c>
-      <c r="O36" t="b">
-        <v>1</v>
-      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2943,10 +2570,10 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="b">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
         <v>1</v>
       </c>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
@@ -2954,22 +2581,12 @@
           <t>u15e1</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>u15e1</t>
-        </is>
-      </c>
-      <c r="O37" t="b">
-        <v>1</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3000,10 +2617,10 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="b">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
         <v>1</v>
       </c>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
@@ -3011,22 +2628,12 @@
           <t>u15f1</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>u15f1</t>
-        </is>
-      </c>
-      <c r="O38" t="b">
-        <v>1</v>
-      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3057,10 +2664,10 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="b">
         <v>1</v>
       </c>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
@@ -3068,22 +2675,12 @@
           <t>u15g1</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>u15g1</t>
-        </is>
-      </c>
-      <c r="O39" t="b">
-        <v>1</v>
-      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3114,10 +2711,10 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="b">
         <v>1</v>
       </c>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -3125,22 +2722,12 @@
           <t>u15h1</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>u15h1</t>
-        </is>
-      </c>
-      <c r="O40" t="b">
-        <v>1</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3176,10 +2763,10 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="b">
+      <c r="I41" t="b">
         <v>1</v>
       </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
@@ -3189,16 +2776,12 @@
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>1</v>
-      </c>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3229,10 +2812,10 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="b">
+      <c r="I42" t="b">
         <v>1</v>
       </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -3250,10 +2833,6 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3302,24 +2881,20 @@
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>20220101|20240531</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="n">
-        <v>1</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>20220101|20240531</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3354,10 +2929,10 @@
           <t>Baseline|Follow-up</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="b">
+      <c r="I44" t="b">
         <v>1</v>
       </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
@@ -3371,10 +2946,6 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3419,19 +2990,15 @@
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3476,19 +3043,15 @@
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3533,19 +3096,15 @@
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3590,19 +3149,15 @@
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3647,19 +3202,15 @@
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3704,19 +3255,15 @@
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3761,19 +3308,15 @@
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3818,19 +3361,15 @@
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3871,19 +3410,15 @@
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3924,19 +3459,15 @@
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3977,19 +3508,15 @@
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>TODO: expand fields to each of the possible selections</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>TODO: expand fields to each of the possible selections</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4030,19 +3557,15 @@
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>TODO: expand fields to each of the possible selections</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>TODO: expand fields to each of the possible selections</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4088,10 +3611,6 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4137,10 +3656,6 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4186,10 +3701,6 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4235,10 +3746,6 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4284,10 +3791,6 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4333,10 +3836,6 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4382,10 +3881,6 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4431,10 +3926,6 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4480,10 +3971,6 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4529,10 +4016,6 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4578,10 +4061,6 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4627,10 +4106,6 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4676,10 +4151,6 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4725,10 +4196,6 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4774,10 +4241,6 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4823,10 +4286,6 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4872,10 +4331,6 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4921,10 +4376,6 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4970,10 +4421,6 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5019,10 +4466,6 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5063,19 +4506,15 @@
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[IF 0, GO TO J2]</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>[IF 0, GO TO J2]</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5116,19 +4555,15 @@
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5169,19 +4604,15 @@
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5222,19 +4653,15 @@
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5275,19 +4702,15 @@
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5328,19 +4751,15 @@
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5381,19 +4800,15 @@
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5434,19 +4849,15 @@
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5487,19 +4898,15 @@
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5540,19 +4947,15 @@
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5593,19 +4996,15 @@
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5646,19 +5045,15 @@
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5699,19 +5094,15 @@
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5752,19 +5143,15 @@
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5805,19 +5192,15 @@
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5858,19 +5241,15 @@
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5911,19 +5290,15 @@
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5964,19 +5339,15 @@
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6017,19 +5388,15 @@
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6070,19 +5437,15 @@
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6123,19 +5486,15 @@
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>(common charge names associated with behavior for reference only)</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6181,10 +5540,6 @@
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6230,10 +5585,6 @@
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6279,10 +5630,6 @@
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6328,10 +5675,6 @@
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6377,10 +5720,6 @@
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6426,10 +5765,6 @@
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6475,10 +5810,6 @@
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6524,10 +5855,6 @@
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6573,10 +5900,6 @@
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6622,10 +5945,6 @@
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6671,10 +5990,6 @@
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6720,10 +6035,6 @@
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6769,10 +6080,6 @@
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6818,10 +6125,6 @@
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6867,10 +6170,6 @@
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6916,10 +6215,6 @@
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6965,10 +6260,6 @@
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7014,10 +6305,6 @@
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7063,10 +6350,6 @@
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7112,10 +6395,6 @@
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7161,10 +6440,6 @@
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7210,10 +6485,6 @@
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7259,10 +6530,6 @@
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7308,10 +6575,6 @@
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7357,10 +6620,6 @@
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7409,19 +6668,15 @@
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>MBK: added Unknown to satisfy a small amount of respondents for one hub.</t>
+        </is>
+      </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>MBK: added Unknown to satisfy a small amount of respondents for one hub.</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7467,10 +6722,6 @@
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7516,10 +6767,6 @@
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7565,10 +6812,6 @@
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7614,10 +6857,6 @@
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7663,10 +6902,6 @@
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7712,10 +6947,6 @@
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7761,10 +6992,6 @@
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7810,10 +7037,6 @@
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7854,19 +7077,15 @@
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>MBK: changed from integer to number to allow partial years/months</t>
+        </is>
+      </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>MBK: changed from integer to number to allow partial years/months</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7907,19 +7126,15 @@
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>MBK: changed from integer to number to allow partial years/months</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>MBK: changed from integer to number to allow partial years/months</t>
-        </is>
-      </c>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7965,10 +7180,6 @@
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8014,10 +7225,6 @@
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8063,10 +7270,6 @@
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8112,10 +7315,6 @@
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8161,10 +7360,6 @@
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8210,10 +7405,6 @@
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8259,10 +7450,6 @@
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8308,10 +7495,6 @@
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8357,10 +7540,6 @@
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8406,10 +7585,6 @@
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8463,10 +7638,6 @@
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8520,10 +7691,6 @@
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8577,10 +7744,6 @@
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8634,10 +7797,6 @@
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8683,10 +7842,6 @@
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8732,10 +7887,6 @@
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8781,10 +7932,6 @@
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8830,10 +7977,6 @@
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8879,10 +8022,6 @@
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8928,10 +8067,6 @@
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
       <c r="S153" t="inlineStr"/>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8977,10 +8112,6 @@
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9026,10 +8157,6 @@
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9075,10 +8202,6 @@
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9124,10 +8247,6 @@
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9173,10 +8292,6 @@
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9222,10 +8337,6 @@
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9271,10 +8382,6 @@
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9320,10 +8427,6 @@
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
-      <c r="W161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9377,10 +8480,6 @@
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
-      <c r="W162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9430,10 +8529,6 @@
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9483,10 +8578,6 @@
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9536,10 +8627,6 @@
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9589,10 +8676,6 @@
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9642,10 +8725,6 @@
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
-      <c r="W167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9699,10 +8778,6 @@
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
-      <c r="W168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9756,10 +8831,6 @@
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
-      <c r="W169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9813,10 +8884,6 @@
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9870,10 +8937,6 @@
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9927,10 +8990,6 @@
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
-      <c r="W172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9984,10 +9043,6 @@
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr"/>
-      <c r="W173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10041,10 +9096,6 @@
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
-      <c r="W174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10098,10 +9149,6 @@
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10155,10 +9202,6 @@
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr"/>
-      <c r="W176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10212,10 +9255,6 @@
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="inlineStr"/>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="inlineStr"/>
-      <c r="V177" t="inlineStr"/>
-      <c r="W177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10265,10 +9304,6 @@
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10318,10 +9353,6 @@
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
-      <c r="W179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10371,10 +9402,6 @@
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
-      <c r="W180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10415,19 +9442,15 @@
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o3</t>
+        </is>
+      </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o3</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10468,19 +9491,15 @@
         </is>
       </c>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o4</t>
+        </is>
+      </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o4</t>
-        </is>
-      </c>
-      <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr"/>
-      <c r="V182" t="inlineStr"/>
-      <c r="W182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10521,19 +9540,15 @@
         </is>
       </c>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o5</t>
+        </is>
+      </c>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o5</t>
-        </is>
-      </c>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10578,19 +9593,15 @@
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o6</t>
+        </is>
+      </c>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o6</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10639,19 +9650,15 @@
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>If No, then skip to d7e1. The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o7</t>
+        </is>
+      </c>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>If No, then skip to d7e1. The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o7</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
-      <c r="W185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10692,19 +9699,15 @@
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o8</t>
+        </is>
+      </c>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o8</t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10745,19 +9748,15 @@
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>If No, [GO TO D7f1] The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o9</t>
+        </is>
+      </c>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>If No, [GO TO D7f1] The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o9</t>
-        </is>
-      </c>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10798,19 +9797,15 @@
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o10</t>
+        </is>
+      </c>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o10</t>
-        </is>
-      </c>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
-      <c r="V188" t="inlineStr"/>
-      <c r="W188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10859,19 +9854,15 @@
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o11</t>
+        </is>
+      </c>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o11</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
-      <c r="W189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10912,19 +9903,15 @@
         </is>
       </c>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o12</t>
+        </is>
+      </c>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o12</t>
-        </is>
-      </c>
-      <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
-      <c r="W190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10969,19 +9956,15 @@
         </is>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o13</t>
+        </is>
+      </c>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr"/>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o13</t>
-        </is>
-      </c>
-      <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
-      <c r="W191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11022,19 +10005,15 @@
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o14</t>
+        </is>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o14</t>
-        </is>
-      </c>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11075,19 +10054,15 @@
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o15</t>
+        </is>
+      </c>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o15</t>
-        </is>
-      </c>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11128,19 +10103,15 @@
         </is>
       </c>
       <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o16</t>
+        </is>
+      </c>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o16</t>
-        </is>
-      </c>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11181,19 +10152,15 @@
         </is>
       </c>
       <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o17</t>
+        </is>
+      </c>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o17</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11242,19 +10209,15 @@
         </is>
       </c>
       <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr"/>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o18</t>
+        </is>
+      </c>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o18</t>
-        </is>
-      </c>
-      <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
-      <c r="V196" t="inlineStr"/>
-      <c r="W196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11303,19 +10266,15 @@
         </is>
       </c>
       <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o19</t>
+        </is>
+      </c>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr"/>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o19</t>
-        </is>
-      </c>
-      <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11364,19 +10323,15 @@
         </is>
       </c>
       <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o20</t>
+        </is>
+      </c>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o20</t>
-        </is>
-      </c>
-      <c r="T198" t="inlineStr"/>
-      <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
-      <c r="W198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11425,19 +10380,15 @@
         </is>
       </c>
       <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o21</t>
+        </is>
+      </c>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr"/>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o21</t>
-        </is>
-      </c>
-      <c r="T199" t="inlineStr"/>
-      <c r="U199" t="inlineStr"/>
-      <c r="V199" t="inlineStr"/>
-      <c r="W199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11478,19 +10429,15 @@
         </is>
       </c>
       <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr"/>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o22</t>
+        </is>
+      </c>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o22</t>
-        </is>
-      </c>
-      <c r="T200" t="inlineStr"/>
-      <c r="U200" t="inlineStr"/>
-      <c r="V200" t="inlineStr"/>
-      <c r="W200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11539,19 +10486,15 @@
         </is>
       </c>
       <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
+        </is>
+      </c>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
-        </is>
-      </c>
-      <c r="T201" t="inlineStr"/>
-      <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr"/>
-      <c r="W201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11600,19 +10543,15 @@
         </is>
       </c>
       <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
+        </is>
+      </c>
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
-        </is>
-      </c>
-      <c r="T202" t="inlineStr"/>
-      <c r="U202" t="inlineStr"/>
-      <c r="V202" t="inlineStr"/>
-      <c r="W202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11661,19 +10600,15 @@
         </is>
       </c>
       <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o24</t>
+        </is>
+      </c>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr"/>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o24</t>
-        </is>
-      </c>
-      <c r="T203" t="inlineStr"/>
-      <c r="U203" t="inlineStr"/>
-      <c r="V203" t="inlineStr"/>
-      <c r="W203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11722,19 +10657,15 @@
         </is>
       </c>
       <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o25</t>
+        </is>
+      </c>
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o25</t>
-        </is>
-      </c>
-      <c r="T204" t="inlineStr"/>
-      <c r="U204" t="inlineStr"/>
-      <c r="V204" t="inlineStr"/>
-      <c r="W204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11783,19 +10714,15 @@
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o26</t>
+        </is>
+      </c>
       <c r="P205" t="inlineStr"/>
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
-      <c r="S205" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o26</t>
-        </is>
-      </c>
-      <c r="T205" t="inlineStr"/>
-      <c r="U205" t="inlineStr"/>
-      <c r="V205" t="inlineStr"/>
-      <c r="W205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11844,19 +10771,15 @@
         </is>
       </c>
       <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o27</t>
+        </is>
+      </c>
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
-      <c r="S206" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o27</t>
-        </is>
-      </c>
-      <c r="T206" t="inlineStr"/>
-      <c r="U206" t="inlineStr"/>
-      <c r="V206" t="inlineStr"/>
-      <c r="W206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11905,19 +10828,15 @@
         </is>
       </c>
       <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o28</t>
+        </is>
+      </c>
       <c r="P207" t="inlineStr"/>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr"/>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o28</t>
-        </is>
-      </c>
-      <c r="T207" t="inlineStr"/>
-      <c r="U207" t="inlineStr"/>
-      <c r="V207" t="inlineStr"/>
-      <c r="W207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11966,19 +10885,15 @@
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o29</t>
+        </is>
+      </c>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr"/>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o29</t>
-        </is>
-      </c>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
-      <c r="W208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12027,19 +10942,15 @@
         </is>
       </c>
       <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o30</t>
+        </is>
+      </c>
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="inlineStr"/>
       <c r="R209" t="inlineStr"/>
-      <c r="S209" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o30</t>
-        </is>
-      </c>
-      <c r="T209" t="inlineStr"/>
-      <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr"/>
-      <c r="W209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12088,19 +10999,15 @@
         </is>
       </c>
       <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o31</t>
+        </is>
+      </c>
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr"/>
-      <c r="S210" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o31</t>
-        </is>
-      </c>
-      <c r="T210" t="inlineStr"/>
-      <c r="U210" t="inlineStr"/>
-      <c r="V210" t="inlineStr"/>
-      <c r="W210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12149,19 +11056,15 @@
         </is>
       </c>
       <c r="N211" t="inlineStr"/>
-      <c r="O211" t="inlineStr"/>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o32</t>
+        </is>
+      </c>
       <c r="P211" t="inlineStr"/>
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr"/>
-      <c r="S211" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o32</t>
-        </is>
-      </c>
-      <c r="T211" t="inlineStr"/>
-      <c r="U211" t="inlineStr"/>
-      <c r="V211" t="inlineStr"/>
-      <c r="W211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12210,19 +11113,15 @@
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
-      <c r="O212" t="inlineStr"/>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o33</t>
+        </is>
+      </c>
       <c r="P212" t="inlineStr"/>
       <c r="Q212" t="inlineStr"/>
       <c r="R212" t="inlineStr"/>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o33</t>
-        </is>
-      </c>
-      <c r="T212" t="inlineStr"/>
-      <c r="U212" t="inlineStr"/>
-      <c r="V212" t="inlineStr"/>
-      <c r="W212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12263,19 +11162,15 @@
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
-      <c r="O213" t="inlineStr"/>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o34</t>
+        </is>
+      </c>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr"/>
-      <c r="S213" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o34</t>
-        </is>
-      </c>
-      <c r="T213" t="inlineStr"/>
-      <c r="U213" t="inlineStr"/>
-      <c r="V213" t="inlineStr"/>
-      <c r="W213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12316,19 +11211,15 @@
         </is>
       </c>
       <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr"/>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o35</t>
+        </is>
+      </c>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="inlineStr"/>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o35</t>
-        </is>
-      </c>
-      <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr"/>
-      <c r="W214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12369,19 +11260,15 @@
         </is>
       </c>
       <c r="N215" t="inlineStr"/>
-      <c r="O215" t="inlineStr"/>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o36</t>
+        </is>
+      </c>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr"/>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o36</t>
-        </is>
-      </c>
-      <c r="T215" t="inlineStr"/>
-      <c r="U215" t="inlineStr"/>
-      <c r="V215" t="inlineStr"/>
-      <c r="W215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12422,19 +11309,15 @@
         </is>
       </c>
       <c r="N216" t="inlineStr"/>
-      <c r="O216" t="inlineStr"/>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o37</t>
+        </is>
+      </c>
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="inlineStr"/>
-      <c r="S216" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o37</t>
-        </is>
-      </c>
-      <c r="T216" t="inlineStr"/>
-      <c r="U216" t="inlineStr"/>
-      <c r="V216" t="inlineStr"/>
-      <c r="W216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12475,19 +11358,15 @@
         </is>
       </c>
       <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr"/>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o38</t>
+        </is>
+      </c>
       <c r="P217" t="inlineStr"/>
       <c r="Q217" t="inlineStr"/>
       <c r="R217" t="inlineStr"/>
-      <c r="S217" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o38</t>
-        </is>
-      </c>
-      <c r="T217" t="inlineStr"/>
-      <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr"/>
-      <c r="W217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12528,19 +11407,15 @@
         </is>
       </c>
       <c r="N218" t="inlineStr"/>
-      <c r="O218" t="inlineStr"/>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o39</t>
+        </is>
+      </c>
       <c r="P218" t="inlineStr"/>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="inlineStr"/>
-      <c r="S218" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o39</t>
-        </is>
-      </c>
-      <c r="T218" t="inlineStr"/>
-      <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr"/>
-      <c r="W218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12581,19 +11456,15 @@
         </is>
       </c>
       <c r="N219" t="inlineStr"/>
-      <c r="O219" t="inlineStr"/>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o40</t>
+        </is>
+      </c>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="inlineStr"/>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o40</t>
-        </is>
-      </c>
-      <c r="T219" t="inlineStr"/>
-      <c r="U219" t="inlineStr"/>
-      <c r="V219" t="inlineStr"/>
-      <c r="W219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12634,19 +11505,15 @@
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
-      <c r="O220" t="inlineStr"/>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o41</t>
+        </is>
+      </c>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
-      <c r="S220" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o41</t>
-        </is>
-      </c>
-      <c r="T220" t="inlineStr"/>
-      <c r="U220" t="inlineStr"/>
-      <c r="V220" t="inlineStr"/>
-      <c r="W220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12687,19 +11554,15 @@
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
-      <c r="O221" t="inlineStr"/>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o42</t>
+        </is>
+      </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
-      <c r="S221" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o42</t>
-        </is>
-      </c>
-      <c r="T221" t="inlineStr"/>
-      <c r="U221" t="inlineStr"/>
-      <c r="V221" t="inlineStr"/>
-      <c r="W221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12740,19 +11603,15 @@
         </is>
       </c>
       <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr"/>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o43</t>
+        </is>
+      </c>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="inlineStr"/>
       <c r="R222" t="inlineStr"/>
-      <c r="S222" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o43</t>
-        </is>
-      </c>
-      <c r="T222" t="inlineStr"/>
-      <c r="U222" t="inlineStr"/>
-      <c r="V222" t="inlineStr"/>
-      <c r="W222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12793,19 +11652,15 @@
         </is>
       </c>
       <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr"/>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o44</t>
+        </is>
+      </c>
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr"/>
-      <c r="S223" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o44</t>
-        </is>
-      </c>
-      <c r="T223" t="inlineStr"/>
-      <c r="U223" t="inlineStr"/>
-      <c r="V223" t="inlineStr"/>
-      <c r="W223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12854,19 +11709,15 @@
         </is>
       </c>
       <c r="N224" t="inlineStr"/>
-      <c r="O224" t="inlineStr"/>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o45</t>
+        </is>
+      </c>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr"/>
       <c r="R224" t="inlineStr"/>
-      <c r="S224" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o45</t>
-        </is>
-      </c>
-      <c r="T224" t="inlineStr"/>
-      <c r="U224" t="inlineStr"/>
-      <c r="V224" t="inlineStr"/>
-      <c r="W224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12915,19 +11766,15 @@
         </is>
       </c>
       <c r="N225" t="inlineStr"/>
-      <c r="O225" t="inlineStr"/>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o46</t>
+        </is>
+      </c>
       <c r="P225" t="inlineStr"/>
       <c r="Q225" t="inlineStr"/>
       <c r="R225" t="inlineStr"/>
-      <c r="S225" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o46</t>
-        </is>
-      </c>
-      <c r="T225" t="inlineStr"/>
-      <c r="U225" t="inlineStr"/>
-      <c r="V225" t="inlineStr"/>
-      <c r="W225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12976,19 +11823,15 @@
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o47</t>
+        </is>
+      </c>
       <c r="P226" t="inlineStr"/>
       <c r="Q226" t="inlineStr"/>
       <c r="R226" t="inlineStr"/>
-      <c r="S226" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o47</t>
-        </is>
-      </c>
-      <c r="T226" t="inlineStr"/>
-      <c r="U226" t="inlineStr"/>
-      <c r="V226" t="inlineStr"/>
-      <c r="W226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13038,10 +11881,6 @@
       <c r="Q227" t="inlineStr"/>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="inlineStr"/>
-      <c r="T227" t="inlineStr"/>
-      <c r="U227" t="inlineStr"/>
-      <c r="V227" t="inlineStr"/>
-      <c r="W227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13091,10 +11930,6 @@
       <c r="Q228" t="inlineStr"/>
       <c r="R228" t="inlineStr"/>
       <c r="S228" t="inlineStr"/>
-      <c r="T228" t="inlineStr"/>
-      <c r="U228" t="inlineStr"/>
-      <c r="V228" t="inlineStr"/>
-      <c r="W228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13144,10 +11979,6 @@
       <c r="Q229" t="inlineStr"/>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="inlineStr"/>
-      <c r="T229" t="inlineStr"/>
-      <c r="U229" t="inlineStr"/>
-      <c r="V229" t="inlineStr"/>
-      <c r="W229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13197,10 +12028,6 @@
       <c r="Q230" t="inlineStr"/>
       <c r="R230" t="inlineStr"/>
       <c r="S230" t="inlineStr"/>
-      <c r="T230" t="inlineStr"/>
-      <c r="U230" t="inlineStr"/>
-      <c r="V230" t="inlineStr"/>
-      <c r="W230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -13250,10 +12077,6 @@
       <c r="Q231" t="inlineStr"/>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="inlineStr"/>
-      <c r="T231" t="inlineStr"/>
-      <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
-      <c r="W231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -13303,10 +12126,6 @@
       <c r="Q232" t="inlineStr"/>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="inlineStr"/>
-      <c r="T232" t="inlineStr"/>
-      <c r="U232" t="inlineStr"/>
-      <c r="V232" t="inlineStr"/>
-      <c r="W232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13356,10 +12175,6 @@
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="inlineStr"/>
-      <c r="T233" t="inlineStr"/>
-      <c r="U233" t="inlineStr"/>
-      <c r="V233" t="inlineStr"/>
-      <c r="W233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13409,10 +12224,6 @@
       <c r="Q234" t="inlineStr"/>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="inlineStr"/>
-      <c r="T234" t="inlineStr"/>
-      <c r="U234" t="inlineStr"/>
-      <c r="V234" t="inlineStr"/>
-      <c r="W234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13462,10 +12273,6 @@
       <c r="Q235" t="inlineStr"/>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="inlineStr"/>
-      <c r="T235" t="inlineStr"/>
-      <c r="U235" t="inlineStr"/>
-      <c r="V235" t="inlineStr"/>
-      <c r="W235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13515,10 +12322,6 @@
       <c r="Q236" t="inlineStr"/>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="inlineStr"/>
-      <c r="T236" t="inlineStr"/>
-      <c r="U236" t="inlineStr"/>
-      <c r="V236" t="inlineStr"/>
-      <c r="W236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13568,10 +12371,6 @@
       <c r="Q237" t="inlineStr"/>
       <c r="R237" t="inlineStr"/>
       <c r="S237" t="inlineStr"/>
-      <c r="T237" t="inlineStr"/>
-      <c r="U237" t="inlineStr"/>
-      <c r="V237" t="inlineStr"/>
-      <c r="W237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13621,10 +12420,6 @@
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="inlineStr"/>
-      <c r="T238" t="inlineStr"/>
-      <c r="U238" t="inlineStr"/>
-      <c r="V238" t="inlineStr"/>
-      <c r="W238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13674,10 +12469,6 @@
       <c r="Q239" t="inlineStr"/>
       <c r="R239" t="inlineStr"/>
       <c r="S239" t="inlineStr"/>
-      <c r="T239" t="inlineStr"/>
-      <c r="U239" t="inlineStr"/>
-      <c r="V239" t="inlineStr"/>
-      <c r="W239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13727,10 +12518,6 @@
       <c r="Q240" t="inlineStr"/>
       <c r="R240" t="inlineStr"/>
       <c r="S240" t="inlineStr"/>
-      <c r="T240" t="inlineStr"/>
-      <c r="U240" t="inlineStr"/>
-      <c r="V240" t="inlineStr"/>
-      <c r="W240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13780,10 +12567,6 @@
       <c r="Q241" t="inlineStr"/>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="inlineStr"/>
-      <c r="T241" t="inlineStr"/>
-      <c r="U241" t="inlineStr"/>
-      <c r="V241" t="inlineStr"/>
-      <c r="W241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13833,10 +12616,6 @@
       <c r="Q242" t="inlineStr"/>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="inlineStr"/>
-      <c r="T242" t="inlineStr"/>
-      <c r="U242" t="inlineStr"/>
-      <c r="V242" t="inlineStr"/>
-      <c r="W242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13886,10 +12665,6 @@
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="inlineStr"/>
-      <c r="T243" t="inlineStr"/>
-      <c r="U243" t="inlineStr"/>
-      <c r="V243" t="inlineStr"/>
-      <c r="W243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13939,10 +12714,6 @@
       <c r="Q244" t="inlineStr"/>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="inlineStr"/>
-      <c r="T244" t="inlineStr"/>
-      <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr"/>
-      <c r="W244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13992,10 +12763,6 @@
       <c r="Q245" t="inlineStr"/>
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="inlineStr"/>
-      <c r="T245" t="inlineStr"/>
-      <c r="U245" t="inlineStr"/>
-      <c r="V245" t="inlineStr"/>
-      <c r="W245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14045,10 +12812,6 @@
       <c r="Q246" t="inlineStr"/>
       <c r="R246" t="inlineStr"/>
       <c r="S246" t="inlineStr"/>
-      <c r="T246" t="inlineStr"/>
-      <c r="U246" t="inlineStr"/>
-      <c r="V246" t="inlineStr"/>
-      <c r="W246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14098,10 +12861,6 @@
       <c r="Q247" t="inlineStr"/>
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="inlineStr"/>
-      <c r="T247" t="inlineStr"/>
-      <c r="U247" t="inlineStr"/>
-      <c r="V247" t="inlineStr"/>
-      <c r="W247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14151,10 +12910,6 @@
       <c r="Q248" t="inlineStr"/>
       <c r="R248" t="inlineStr"/>
       <c r="S248" t="inlineStr"/>
-      <c r="T248" t="inlineStr"/>
-      <c r="U248" t="inlineStr"/>
-      <c r="V248" t="inlineStr"/>
-      <c r="W248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -14204,10 +12959,6 @@
       <c r="Q249" t="inlineStr"/>
       <c r="R249" t="inlineStr"/>
       <c r="S249" t="inlineStr"/>
-      <c r="T249" t="inlineStr"/>
-      <c r="U249" t="inlineStr"/>
-      <c r="V249" t="inlineStr"/>
-      <c r="W249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -14257,10 +13008,6 @@
       <c r="Q250" t="inlineStr"/>
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="inlineStr"/>
-      <c r="T250" t="inlineStr"/>
-      <c r="U250" t="inlineStr"/>
-      <c r="V250" t="inlineStr"/>
-      <c r="W250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -14310,10 +13057,6 @@
       <c r="Q251" t="inlineStr"/>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="inlineStr"/>
-      <c r="T251" t="inlineStr"/>
-      <c r="U251" t="inlineStr"/>
-      <c r="V251" t="inlineStr"/>
-      <c r="W251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14363,10 +13106,6 @@
       <c r="Q252" t="inlineStr"/>
       <c r="R252" t="inlineStr"/>
       <c r="S252" t="inlineStr"/>
-      <c r="T252" t="inlineStr"/>
-      <c r="U252" t="inlineStr"/>
-      <c r="V252" t="inlineStr"/>
-      <c r="W252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14416,10 +13155,6 @@
       <c r="Q253" t="inlineStr"/>
       <c r="R253" t="inlineStr"/>
       <c r="S253" t="inlineStr"/>
-      <c r="T253" t="inlineStr"/>
-      <c r="U253" t="inlineStr"/>
-      <c r="V253" t="inlineStr"/>
-      <c r="W253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14469,10 +13204,6 @@
       <c r="Q254" t="inlineStr"/>
       <c r="R254" t="inlineStr"/>
       <c r="S254" t="inlineStr"/>
-      <c r="T254" t="inlineStr"/>
-      <c r="U254" t="inlineStr"/>
-      <c r="V254" t="inlineStr"/>
-      <c r="W254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14522,10 +13253,6 @@
       <c r="Q255" t="inlineStr"/>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="inlineStr"/>
-      <c r="T255" t="inlineStr"/>
-      <c r="U255" t="inlineStr"/>
-      <c r="V255" t="inlineStr"/>
-      <c r="W255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14575,10 +13302,6 @@
       <c r="Q256" t="inlineStr"/>
       <c r="R256" t="inlineStr"/>
       <c r="S256" t="inlineStr"/>
-      <c r="T256" t="inlineStr"/>
-      <c r="U256" t="inlineStr"/>
-      <c r="V256" t="inlineStr"/>
-      <c r="W256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14623,11 +13346,7 @@
       <c r="P257" t="inlineStr"/>
       <c r="Q257" t="inlineStr"/>
       <c r="R257" t="inlineStr"/>
-      <c r="S257" t="inlineStr"/>
-      <c r="T257" t="inlineStr"/>
-      <c r="U257" t="inlineStr"/>
-      <c r="V257" t="inlineStr"/>
-      <c r="W257" t="n">
+      <c r="S257" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14674,19 +13393,15 @@
         </is>
       </c>
       <c r="N258" t="inlineStr"/>
-      <c r="O258" t="inlineStr"/>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P258" t="inlineStr"/>
       <c r="Q258" t="inlineStr"/>
       <c r="R258" t="inlineStr"/>
-      <c r="S258" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T258" t="inlineStr"/>
-      <c r="U258" t="inlineStr"/>
-      <c r="V258" t="inlineStr"/>
-      <c r="W258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14731,19 +13446,15 @@
         </is>
       </c>
       <c r="N259" t="inlineStr"/>
-      <c r="O259" t="inlineStr"/>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P259" t="inlineStr"/>
       <c r="Q259" t="inlineStr"/>
       <c r="R259" t="inlineStr"/>
-      <c r="S259" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T259" t="inlineStr"/>
-      <c r="U259" t="inlineStr"/>
-      <c r="V259" t="inlineStr"/>
-      <c r="W259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14788,19 +13499,15 @@
         </is>
       </c>
       <c r="N260" t="inlineStr"/>
-      <c r="O260" t="inlineStr"/>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P260" t="inlineStr"/>
       <c r="Q260" t="inlineStr"/>
       <c r="R260" t="inlineStr"/>
-      <c r="S260" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T260" t="inlineStr"/>
-      <c r="U260" t="inlineStr"/>
-      <c r="V260" t="inlineStr"/>
-      <c r="W260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14845,19 +13552,15 @@
         </is>
       </c>
       <c r="N261" t="inlineStr"/>
-      <c r="O261" t="inlineStr"/>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P261" t="inlineStr"/>
       <c r="Q261" t="inlineStr"/>
       <c r="R261" t="inlineStr"/>
-      <c r="S261" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T261" t="inlineStr"/>
-      <c r="U261" t="inlineStr"/>
-      <c r="V261" t="inlineStr"/>
-      <c r="W261" t="inlineStr"/>
+      <c r="S261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14902,19 +13605,15 @@
         </is>
       </c>
       <c r="N262" t="inlineStr"/>
-      <c r="O262" t="inlineStr"/>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P262" t="inlineStr"/>
       <c r="Q262" t="inlineStr"/>
       <c r="R262" t="inlineStr"/>
-      <c r="S262" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T262" t="inlineStr"/>
-      <c r="U262" t="inlineStr"/>
-      <c r="V262" t="inlineStr"/>
-      <c r="W262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14959,19 +13658,15 @@
         </is>
       </c>
       <c r="N263" t="inlineStr"/>
-      <c r="O263" t="inlineStr"/>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P263" t="inlineStr"/>
       <c r="Q263" t="inlineStr"/>
       <c r="R263" t="inlineStr"/>
-      <c r="S263" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T263" t="inlineStr"/>
-      <c r="U263" t="inlineStr"/>
-      <c r="V263" t="inlineStr"/>
-      <c r="W263" t="inlineStr"/>
+      <c r="S263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15016,19 +13711,15 @@
         </is>
       </c>
       <c r="N264" t="inlineStr"/>
-      <c r="O264" t="inlineStr"/>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P264" t="inlineStr"/>
       <c r="Q264" t="inlineStr"/>
       <c r="R264" t="inlineStr"/>
-      <c r="S264" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T264" t="inlineStr"/>
-      <c r="U264" t="inlineStr"/>
-      <c r="V264" t="inlineStr"/>
-      <c r="W264" t="inlineStr"/>
+      <c r="S264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -15073,19 +13764,15 @@
         </is>
       </c>
       <c r="N265" t="inlineStr"/>
-      <c r="O265" t="inlineStr"/>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P265" t="inlineStr"/>
       <c r="Q265" t="inlineStr"/>
       <c r="R265" t="inlineStr"/>
-      <c r="S265" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T265" t="inlineStr"/>
-      <c r="U265" t="inlineStr"/>
-      <c r="V265" t="inlineStr"/>
-      <c r="W265" t="inlineStr"/>
+      <c r="S265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -15130,19 +13817,15 @@
         </is>
       </c>
       <c r="N266" t="inlineStr"/>
-      <c r="O266" t="inlineStr"/>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P266" t="inlineStr"/>
       <c r="Q266" t="inlineStr"/>
       <c r="R266" t="inlineStr"/>
-      <c r="S266" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T266" t="inlineStr"/>
-      <c r="U266" t="inlineStr"/>
-      <c r="V266" t="inlineStr"/>
-      <c r="W266" t="inlineStr"/>
+      <c r="S266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15187,19 +13870,15 @@
         </is>
       </c>
       <c r="N267" t="inlineStr"/>
-      <c r="O267" t="inlineStr"/>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P267" t="inlineStr"/>
       <c r="Q267" t="inlineStr"/>
       <c r="R267" t="inlineStr"/>
-      <c r="S267" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T267" t="inlineStr"/>
-      <c r="U267" t="inlineStr"/>
-      <c r="V267" t="inlineStr"/>
-      <c r="W267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -15244,19 +13923,15 @@
         </is>
       </c>
       <c r="N268" t="inlineStr"/>
-      <c r="O268" t="inlineStr"/>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P268" t="inlineStr"/>
       <c r="Q268" t="inlineStr"/>
       <c r="R268" t="inlineStr"/>
-      <c r="S268" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T268" t="inlineStr"/>
-      <c r="U268" t="inlineStr"/>
-      <c r="V268" t="inlineStr"/>
-      <c r="W268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -15301,19 +13976,15 @@
         </is>
       </c>
       <c r="N269" t="inlineStr"/>
-      <c r="O269" t="inlineStr"/>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P269" t="inlineStr"/>
       <c r="Q269" t="inlineStr"/>
       <c r="R269" t="inlineStr"/>
-      <c r="S269" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T269" t="inlineStr"/>
-      <c r="U269" t="inlineStr"/>
-      <c r="V269" t="inlineStr"/>
-      <c r="W269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15362,19 +14033,15 @@
         </is>
       </c>
       <c r="N270" t="inlineStr"/>
-      <c r="O270" t="inlineStr"/>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="inlineStr"/>
       <c r="R270" t="inlineStr"/>
-      <c r="S270" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T270" t="inlineStr"/>
-      <c r="U270" t="inlineStr"/>
-      <c r="V270" t="inlineStr"/>
-      <c r="W270" t="inlineStr"/>
+      <c r="S270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15423,19 +14090,15 @@
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
-      <c r="O271" t="inlineStr"/>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="inlineStr"/>
       <c r="R271" t="inlineStr"/>
-      <c r="S271" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T271" t="inlineStr"/>
-      <c r="U271" t="inlineStr"/>
-      <c r="V271" t="inlineStr"/>
-      <c r="W271" t="inlineStr"/>
+      <c r="S271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15484,19 +14147,15 @@
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
-      <c r="O272" t="inlineStr"/>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="inlineStr"/>
       <c r="R272" t="inlineStr"/>
-      <c r="S272" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T272" t="inlineStr"/>
-      <c r="U272" t="inlineStr"/>
-      <c r="V272" t="inlineStr"/>
-      <c r="W272" t="inlineStr"/>
+      <c r="S272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15545,19 +14204,15 @@
         </is>
       </c>
       <c r="N273" t="inlineStr"/>
-      <c r="O273" t="inlineStr"/>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="inlineStr"/>
       <c r="R273" t="inlineStr"/>
-      <c r="S273" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T273" t="inlineStr"/>
-      <c r="U273" t="inlineStr"/>
-      <c r="V273" t="inlineStr"/>
-      <c r="W273" t="inlineStr"/>
+      <c r="S273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15606,19 +14261,15 @@
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
-      <c r="O274" t="inlineStr"/>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P274" t="inlineStr"/>
       <c r="Q274" t="inlineStr"/>
       <c r="R274" t="inlineStr"/>
-      <c r="S274" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T274" t="inlineStr"/>
-      <c r="U274" t="inlineStr"/>
-      <c r="V274" t="inlineStr"/>
-      <c r="W274" t="inlineStr"/>
+      <c r="S274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15667,19 +14318,15 @@
         </is>
       </c>
       <c r="N275" t="inlineStr"/>
-      <c r="O275" t="inlineStr"/>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P275" t="inlineStr"/>
       <c r="Q275" t="inlineStr"/>
       <c r="R275" t="inlineStr"/>
-      <c r="S275" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T275" t="inlineStr"/>
-      <c r="U275" t="inlineStr"/>
-      <c r="V275" t="inlineStr"/>
-      <c r="W275" t="inlineStr"/>
+      <c r="S275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15724,19 +14371,15 @@
         </is>
       </c>
       <c r="N276" t="inlineStr"/>
-      <c r="O276" t="inlineStr"/>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P276" t="inlineStr"/>
       <c r="Q276" t="inlineStr"/>
       <c r="R276" t="inlineStr"/>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T276" t="inlineStr"/>
-      <c r="U276" t="inlineStr"/>
-      <c r="V276" t="inlineStr"/>
-      <c r="W276" t="inlineStr"/>
+      <c r="S276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15781,19 +14424,15 @@
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
-      <c r="O277" t="inlineStr"/>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P277" t="inlineStr"/>
       <c r="Q277" t="inlineStr"/>
       <c r="R277" t="inlineStr"/>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T277" t="inlineStr"/>
-      <c r="U277" t="inlineStr"/>
-      <c r="V277" t="inlineStr"/>
-      <c r="W277" t="inlineStr"/>
+      <c r="S277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15838,19 +14477,15 @@
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
-      <c r="O278" t="inlineStr"/>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P278" t="inlineStr"/>
       <c r="Q278" t="inlineStr"/>
       <c r="R278" t="inlineStr"/>
-      <c r="S278" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T278" t="inlineStr"/>
-      <c r="U278" t="inlineStr"/>
-      <c r="V278" t="inlineStr"/>
-      <c r="W278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15895,19 +14530,15 @@
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
-      <c r="O279" t="inlineStr"/>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P279" t="inlineStr"/>
       <c r="Q279" t="inlineStr"/>
       <c r="R279" t="inlineStr"/>
-      <c r="S279" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T279" t="inlineStr"/>
-      <c r="U279" t="inlineStr"/>
-      <c r="V279" t="inlineStr"/>
-      <c r="W279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15952,19 +14583,15 @@
         </is>
       </c>
       <c r="N280" t="inlineStr"/>
-      <c r="O280" t="inlineStr"/>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P280" t="inlineStr"/>
       <c r="Q280" t="inlineStr"/>
       <c r="R280" t="inlineStr"/>
-      <c r="S280" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T280" t="inlineStr"/>
-      <c r="U280" t="inlineStr"/>
-      <c r="V280" t="inlineStr"/>
-      <c r="W280" t="inlineStr"/>
+      <c r="S280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -16009,19 +14636,15 @@
         </is>
       </c>
       <c r="N281" t="inlineStr"/>
-      <c r="O281" t="inlineStr"/>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
       <c r="P281" t="inlineStr"/>
       <c r="Q281" t="inlineStr"/>
       <c r="R281" t="inlineStr"/>
-      <c r="S281" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
-      <c r="T281" t="inlineStr"/>
-      <c r="U281" t="inlineStr"/>
-      <c r="V281" t="inlineStr"/>
-      <c r="W281" t="inlineStr"/>
+      <c r="S281" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -57,16 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,66 +439,65 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="97.5" customWidth="1" min="2" max="2"/>
-    <col width="86" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="892" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>missingValues</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>jcoin:missingValuesDescription</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>table-schema-clients</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>This schema/data dictionary contains all fields collected baseline and follow ups.If marked, `jcoin:baseline_only` = `True`, the field is only collected at baseline (and not follow up interviews)</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Client data dictionary</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
@@ -511,12 +507,12 @@
 Missing in error</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.3.0</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 **Below are extended descriptions of each `missingValues` (ie reserve code):**
@@ -531,7 +527,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -598,25 +594,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
-    <col width="38.5" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="308" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="318.5" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="26" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="41" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="184" customWidth="1" min="14" max="14"/>
-    <col width="259" customWidth="1" min="15" max="15"/>
-    <col width="19" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="17" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="11" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15800,24 +15796,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="55" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="33" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="263.5" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="164" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
-    <col width="41" customWidth="1" min="11" max="11"/>
-    <col width="26" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="170" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="17" customWidth="1" min="17" max="17"/>
-    <col width="184" customWidth="1" min="18" max="18"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/xlsx/core_measures.xlsx
+++ b/xlsx/core_measures.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.3.0</t>
+          <t>2.4.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.3.0</t>
+          <t>2.4.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
